--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="11295" activeTab="1"/>
+    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,19 @@
     <sheet name="家装百科分类表" sheetId="8" r:id="rId8"/>
     <sheet name="家装百科文章表" sheetId="9" r:id="rId9"/>
     <sheet name="登录记录表" sheetId="10" r:id="rId10"/>
-    <sheet name="验证码表" sheetId="11" r:id="rId11"/>
-    <sheet name="短信轰炸表" sheetId="12" r:id="rId12"/>
-    <sheet name="黑名单表" sheetId="13" r:id="rId13"/>
-    <sheet name="收货地址表" sheetId="14" r:id="rId14"/>
-    <sheet name="消息表" sheetId="15" r:id="rId15"/>
-    <sheet name="字典表" sheetId="16" r:id="rId16"/>
-    <sheet name="木工表" sheetId="17" r:id="rId17"/>
-    <sheet name="水电工表" sheetId="18" r:id="rId18"/>
-    <sheet name="瓦工表" sheetId="19" r:id="rId19"/>
-    <sheet name="油漆工表" sheetId="20" r:id="rId20"/>
-    <sheet name="第三方表" sheetId="21" r:id="rId21"/>
+    <sheet name="效果图收藏表" sheetId="11" r:id="rId11"/>
+    <sheet name="成本结果收藏表" sheetId="12" r:id="rId12"/>
+    <sheet name="验证码表" sheetId="13" r:id="rId13"/>
+    <sheet name="短信轰炸表" sheetId="14" r:id="rId14"/>
+    <sheet name="黑名单表" sheetId="15" r:id="rId15"/>
+    <sheet name="收货地址表" sheetId="16" r:id="rId16"/>
+    <sheet name="消息表" sheetId="17" r:id="rId17"/>
+    <sheet name="字典表" sheetId="18" r:id="rId18"/>
+    <sheet name="木工表" sheetId="19" r:id="rId19"/>
+    <sheet name="水电工表" sheetId="20" r:id="rId20"/>
+    <sheet name="瓦工表" sheetId="21" r:id="rId21"/>
+    <sheet name="油漆工表" sheetId="22" r:id="rId22"/>
+    <sheet name="第三方表" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">用户表!$A$1:$G$35</definedName>
@@ -36,28 +38,30 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">工长表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">基本信息表!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">实名制表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">第三方表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">第三方表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">时间表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">木工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">水电工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">瓦工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">油漆工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">字典表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">收货地址表!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">验证码表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">短信轰炸表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">黑名单表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">木工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">水电工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">瓦工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">油漆工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">字典表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">收货地址表!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">验证码表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">短信轰炸表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">黑名单表!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">家装百科分类表!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">家装百科文章表!$A$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">登录记录表!$A$1:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">消息表!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">消息表!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">效果图收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">成本结果收藏表!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
   <si>
     <t>更新日期</t>
   </si>
@@ -716,6 +720,54 @@
     <t>login_device</t>
   </si>
   <si>
+    <t>效果图收藏表</t>
+  </si>
+  <si>
+    <t>hh_imgcollection</t>
+  </si>
+  <si>
+    <t>用于存放效果图收藏信息</t>
+  </si>
+  <si>
+    <t>效果图id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>收藏时间</t>
+  </si>
+  <si>
+    <t>collect_time</t>
+  </si>
+  <si>
+    <t>成本结果收藏表</t>
+  </si>
+  <si>
+    <t>hh_costresult</t>
+  </si>
+  <si>
+    <t>用于存放成本结果收藏信息</t>
+  </si>
+  <si>
+    <t>成本结果id</t>
+  </si>
+  <si>
+    <t>result_id</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>isdel</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1：已删除 0：未删除</t>
+  </si>
+  <si>
     <t>用户id</t>
   </si>
   <si>
@@ -873,15 +925,6 @@
   </si>
   <si>
     <t>1：已读 0：未读</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-  </si>
-  <si>
-    <t>isdel</t>
-  </si>
-  <si>
-    <t>1：已删除 0：未删除</t>
   </si>
   <si>
     <t>字典表</t>
@@ -976,10 +1019,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1067,14 +1110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,7 +1125,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,7 +1147,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,36 +1198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1155,40 +1206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,9 +1223,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1254,55 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,24 +1310,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,19 +1345,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,19 +1423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,7 +2066,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
       <bottom style="dashed">
         <color auto="1"/>
       </bottom>
@@ -2036,9 +2081,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="dashed">
         <color auto="1"/>
       </bottom>
@@ -2333,8 +2376,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2342,8 +2385,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2363,21 +2421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2396,10 +2439,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2408,140 +2451,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2827,57 +2870,57 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2963,15 +3006,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3409,278 +3443,278 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="18.75" spans="2:11">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155" t="s">
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="173"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="158"/>
+      <c r="I3" s="155"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="174"/>
+      <c r="K3" s="171"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="173"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="167"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="164"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="174"/>
+      <c r="K5" s="171"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="156"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="167"/>
+      <c r="I6" s="164"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="174"/>
+      <c r="K6" s="171"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="164"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="177"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="174"/>
+      <c r="K7" s="171"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="164"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="177"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="174"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="174"/>
+      <c r="K8" s="171"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="177"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="174"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="174"/>
+      <c r="K9" s="171"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="177"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="174"/>
+      <c r="K10" s="171"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="177"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="174"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="174"/>
+      <c r="K11" s="171"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="177"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="174"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="174"/>
+      <c r="K12" s="171"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="177"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="174"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="174"/>
+      <c r="K13" s="171"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="177"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="174"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="174"/>
+      <c r="K14" s="171"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="164"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="177"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="174"/>
+      <c r="K15" s="171"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="177"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="174"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="174"/>
+      <c r="K16" s="171"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="177"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="174"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="174"/>
+      <c r="K17" s="171"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="177"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="174"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="174"/>
+      <c r="K18" s="171"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="177"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="174"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="174"/>
+      <c r="K19" s="171"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="177"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="174"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="174"/>
+      <c r="K20" s="171"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="177"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="174"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="174"/>
+      <c r="K21" s="171"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="177"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="174"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="174"/>
+      <c r="K22" s="171"/>
     </row>
     <row r="23" ht="14.25" spans="2:11">
-      <c r="B23" s="146"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="178"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3960,67 +3994,67 @@
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
+      <c r="G17" s="111"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="96">
+      <c r="A18" s="110">
         <v>6</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101">
+      <c r="A19" s="95">
         <v>7</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106">
+      <c r="A20" s="100">
         <v>8</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="49"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="54"/>
@@ -4080,12 +4114,12 @@
       <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="110"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="88"/>
     </row>
     <row r="28" ht="19.5" spans="1:7">
@@ -4265,19 +4299,19 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4327,7 +4361,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -4341,7 +4375,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -4360,7 +4394,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4421,41 +4455,38 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:7">
       <c r="A14" s="35">
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>195</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7">
@@ -4463,79 +4494,53 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>7</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="54"/>
@@ -4595,15 +4600,15 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A26" s="108"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -4633,7 +4638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" s="1" customFormat="1" spans="1:7">
       <c r="A29" s="68">
         <v>1</v>
       </c>
@@ -4643,11 +4648,11 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
@@ -4668,7 +4673,7 @@
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
+    <row r="32" ht="19.5" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -4679,7 +4684,7 @@
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="32" t="s">
         <v>5</v>
       </c>
@@ -4707,7 +4712,7 @@
       <c r="F34" s="71"/>
       <c r="G34" s="78"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" s="1" customFormat="1" spans="1:7">
       <c r="A35" s="68"/>
       <c r="B35" s="77"/>
       <c r="C35" s="79"/>
@@ -4716,7 +4721,7 @@
       <c r="F35" s="80"/>
       <c r="G35" s="78"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" s="1" customFormat="1" spans="1:7">
       <c r="A36" s="68"/>
       <c r="B36" s="77"/>
       <c r="C36" s="82"/>
@@ -4780,6 +4785,1019 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" ht="19.5" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="68"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="108"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="68">
+        <v>1</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" ht="19.5" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="68"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>6</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
+        <v>7</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" ht="19.5" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="68"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="68">
+        <v>1</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="68"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4944,7 +5962,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -4961,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>162</v>
@@ -4978,10 +5996,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>121</v>
@@ -5239,7 +6257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J34"/>
@@ -5406,7 +6424,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -5423,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>177</v>
@@ -5440,10 +6458,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>152</v>
@@ -5453,7 +6471,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="93" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -5705,7 +6723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J42"/>
@@ -5869,10 +6887,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>149</v>
@@ -5886,10 +6904,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>121</v>
@@ -5906,10 +6924,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>121</v>
@@ -5923,10 +6941,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>121</v>
@@ -5940,10 +6958,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>121</v>
@@ -5957,10 +6975,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>140</v>
@@ -5974,10 +6992,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>140</v>
@@ -5991,10 +7009,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>80</v>
@@ -6008,10 +7026,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>86</v>
@@ -6025,17 +7043,17 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>152</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -6297,13 +7315,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6395,7 +7413,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6461,10 +7479,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>140</v>
@@ -6478,10 +7496,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -6498,10 +7516,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>162</v>
@@ -6515,10 +7533,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -6532,10 +7550,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>80</v>
@@ -6549,10 +7567,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>152</v>
@@ -6560,7 +7578,7 @@
       <c r="E19" s="89"/>
       <c r="F19" s="47"/>
       <c r="G19" s="48" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6568,10 +7586,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>152</v>
@@ -6579,7 +7597,7 @@
       <c r="E20" s="45"/>
       <c r="F20" s="47"/>
       <c r="G20" s="48" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6840,7 +7858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J35"/>
@@ -6905,7 +7923,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -6919,7 +7937,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -6938,7 +7956,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -7004,10 +8022,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>121</v>
@@ -7024,10 +8042,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -7044,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -7177,973 +8195,11 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" ht="19.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="68">
-        <v>1</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68">
-        <v>1</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" ht="19.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="68">
-        <v>1</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68">
-        <v>1</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
@@ -8278,8 +8334,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8338,7 +8394,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -8352,7 +8408,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -8371,7 +8427,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8440,7 +8496,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -8457,10 +8513,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -8478,10 +8534,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -8620,7 +8676,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -8759,7 +8815,7 @@
   <sheetPr/>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
@@ -9017,18 +9073,18 @@
       <c r="B16" s="131">
         <v>14</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="144"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="134" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="134"/>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="145"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="2:8">
       <c r="B17" s="131">
@@ -9180,13 +9236,13 @@
       <c r="H29" s="140"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:8">
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="152"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1"/>
@@ -9296,14 +9352,14 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -9355,7 +9411,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9369,7 +9425,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9388,7 +9444,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9457,7 +9513,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -9474,10 +9530,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -9495,10 +9551,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -9637,7 +9693,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -9776,6 +9832,968 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -9936,10 +10954,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -9956,10 +10974,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -9973,13 +10991,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -10470,7 +11488,7 @@
       <c r="F17" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="111" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10547,12 +11565,12 @@
       <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="110"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="88"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="88"/>
     </row>
     <row r="25" ht="19.5" spans="1:7">
@@ -10956,7 +11974,7 @@
       <c r="F17" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="111" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11033,12 +12051,12 @@
       <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="110"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="88"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="88"/>
     </row>
     <row r="25" ht="19.5" spans="1:7">
@@ -11221,7 +12239,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13146,12 +14164,12 @@
       <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="110"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="88"/>
     </row>
     <row r="24" ht="19.5" spans="1:7">
@@ -13569,7 +14587,7 @@
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="73"/>
@@ -13638,12 +14656,12 @@
       <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="110"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="88"/>
     </row>
     <row r="26" ht="19.5" spans="1:7">

--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <sheet name="黑名单表" sheetId="15" r:id="rId15"/>
     <sheet name="收货地址表" sheetId="16" r:id="rId16"/>
     <sheet name="消息表" sheetId="17" r:id="rId17"/>
-    <sheet name="字典表" sheetId="18" r:id="rId18"/>
-    <sheet name="木工表" sheetId="19" r:id="rId19"/>
-    <sheet name="水电工表" sheetId="20" r:id="rId20"/>
-    <sheet name="瓦工表" sheetId="21" r:id="rId21"/>
-    <sheet name="油漆工表" sheetId="22" r:id="rId22"/>
-    <sheet name="第三方表" sheetId="23" r:id="rId23"/>
+    <sheet name="token表" sheetId="24" r:id="rId18"/>
+    <sheet name="字典表" sheetId="18" r:id="rId19"/>
+    <sheet name="木工表" sheetId="19" r:id="rId20"/>
+    <sheet name="水电工表" sheetId="20" r:id="rId21"/>
+    <sheet name="瓦工表" sheetId="21" r:id="rId22"/>
+    <sheet name="油漆工表" sheetId="22" r:id="rId23"/>
+    <sheet name="第三方表" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">用户表!$A$1:$G$35</definedName>
@@ -38,13 +39,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">工长表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">基本信息表!$A$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">实名制表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">第三方表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">第三方表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">时间表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">木工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">水电工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">瓦工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">油漆工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">字典表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">木工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">水电工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">瓦工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">油漆工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">字典表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">收货地址表!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">验证码表!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">短信轰炸表!$A$1:$G$34</definedName>
@@ -52,16 +53,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">家装百科分类表!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">家装百科文章表!$A$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">登录记录表!$A$1:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">消息表!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">消息表!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">效果图收藏表!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">成本结果收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">token表!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297">
   <si>
     <t>更新日期</t>
   </si>
@@ -795,136 +797,151 @@
     <t>smstime</t>
   </si>
   <si>
-    <t>唯一标识符</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>发送时间</t>
+  </si>
+  <si>
+    <t>sendtime</t>
+  </si>
+  <si>
+    <t>发送次数</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>1：拉黑 0：正常</t>
+  </si>
+  <si>
+    <t>收货人</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>县区</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>街道</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>address_userid</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>默认地址</t>
+  </si>
+  <si>
+    <t>is_default</t>
+  </si>
+  <si>
+    <t>1：默认地址 2：非默认地址</t>
+  </si>
+  <si>
+    <t>用于存放消息的信息</t>
+  </si>
+  <si>
+    <t>消息标题</t>
+  </si>
+  <si>
+    <t>msgtitle</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>msgcontent</t>
+  </si>
+  <si>
+    <t>消息类型</t>
+  </si>
+  <si>
+    <t>msgtype</t>
+  </si>
+  <si>
+    <t>发送用户id</t>
+  </si>
+  <si>
+    <t>senduserid</t>
+  </si>
+  <si>
+    <t>接收用户id</t>
+  </si>
+  <si>
+    <t>receiveuserid</t>
+  </si>
+  <si>
+    <t>是否已读</t>
+  </si>
+  <si>
+    <t>isread</t>
+  </si>
+  <si>
+    <t>1：已读 0：未读</t>
+  </si>
+  <si>
+    <t>token表</t>
+  </si>
+  <si>
+    <t>hh_token</t>
+  </si>
+  <si>
+    <t>用于存放唯一标识符flag的信息</t>
+  </si>
+  <si>
+    <t>唯一标识</t>
   </si>
   <si>
     <t>flag</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>发送时间</t>
-  </si>
-  <si>
-    <t>sendtime</t>
-  </si>
-  <si>
-    <t>发送次数</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>1：拉黑 0：正常</t>
-  </si>
-  <si>
-    <t>收货人</t>
-  </si>
-  <si>
-    <t>receiver</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>县区</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>街道</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>详细</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>邮政编码</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>address_userid</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>默认地址</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>1：默认地址 2：非默认地址</t>
-  </si>
-  <si>
-    <t>用于消息的信息</t>
-  </si>
-  <si>
-    <t>消息内容</t>
-  </si>
-  <si>
-    <t>msgcontent</t>
-  </si>
-  <si>
-    <t>消息类型</t>
-  </si>
-  <si>
-    <t>msgtype</t>
-  </si>
-  <si>
-    <t>发送用户id</t>
-  </si>
-  <si>
-    <t>senduserid</t>
-  </si>
-  <si>
-    <t>接收用户id</t>
-  </si>
-  <si>
-    <t>receiveuserid</t>
-  </si>
-  <si>
-    <t>是否已读</t>
-  </si>
-  <si>
-    <t>isread</t>
-  </si>
-  <si>
-    <t>1：已读 0：未读</t>
   </si>
   <si>
     <t>字典表</t>
@@ -1019,10 +1036,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1110,6 +1127,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1117,7 +1141,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1131,11 +1155,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1146,22 +1177,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,34 +1201,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1215,15 +1225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,14 +1240,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1253,10 +1247,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1297,7 +1314,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1368,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,97 +1440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,18 +1476,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1469,12 +1492,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="76">
     <border>
@@ -2331,15 +2348,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2354,6 +2362,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2376,8 +2410,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2406,28 +2440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2439,148 +2456,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2855,11 +2872,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4787,7 +4804,7 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -5286,7 +5303,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5528,18 +5545,10 @@
       <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>7</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>80</v>
-      </c>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="36" t="s">
         <v>112</v>
       </c>
@@ -5962,7 +5971,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -5979,10 +5988,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>162</v>
@@ -5996,10 +6005,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>121</v>
@@ -6424,7 +6433,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -6441,10 +6450,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>177</v>
@@ -6458,10 +6467,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>152</v>
@@ -6471,7 +6480,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -6887,10 +6896,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>149</v>
@@ -6904,10 +6913,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>121</v>
@@ -6924,10 +6933,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>121</v>
@@ -6941,10 +6950,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>121</v>
@@ -6958,10 +6967,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>238</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>121</v>
@@ -6975,10 +6984,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>140</v>
@@ -6992,10 +7001,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>140</v>
@@ -7012,7 +7021,7 @@
         <v>210</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>80</v>
@@ -7026,10 +7035,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>86</v>
@@ -7043,22 +7052,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>152</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="91"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="45"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -7318,10 +7327,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7413,7 +7422,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -7479,10 +7488,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>140</v>
@@ -7491,55 +7500,55 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>253</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="89"/>
+        <v>140</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="35">
+        <v>3</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="J16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="44"/>
@@ -7547,90 +7556,98 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="89"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>259</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E19" s="89"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="48" t="s">
-        <v>262</v>
-      </c>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="47"/>
       <c r="G20" s="48" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="91"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="35">
+        <v>8</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>152</v>
+      </c>
       <c r="E21" s="45"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" ht="19.5" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G21" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="90"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -7638,56 +7655,56 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
+    <row r="25" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C26" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="34" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="68"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="62"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>97</v>
-      </c>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -7695,64 +7712,64 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="32" t="s">
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C31" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="34" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="68">
+    <row r="32" spans="1:7">
+      <c r="A32" s="68">
         <v>1</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>101</v>
-      </c>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -7760,60 +7777,71 @@
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="32" t="s">
+    <row r="35" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B36" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C36" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="34" t="s">
+      <c r="F36" s="57"/>
+      <c r="G36" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:7">
-      <c r="A36" s="68"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" spans="1:7">
+    <row r="37" s="1" customFormat="1" spans="1:7">
       <c r="A37" s="68"/>
       <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="80"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="78"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="68"/>
       <c r="B38" s="77"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="78"/>
     </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="68"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -7828,20 +7856,18 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C37:D37"/>
@@ -7850,6 +7876,8 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="B8:G9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7859,6 +7887,487 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="90"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" ht="19.5" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="68"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" ht="19.5" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="68">
+        <v>1</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" ht="19.5" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J35"/>
@@ -7923,7 +8432,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -7937,7 +8446,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -7956,7 +8465,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8022,10 +8531,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>121</v>
@@ -8042,10 +8551,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -8062,7 +8571,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -8195,492 +8704,11 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" ht="19.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="68">
-        <v>1</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68">
-        <v>1</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
@@ -9351,15 +9379,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -9411,7 +9439,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9425,7 +9453,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9444,7 +9472,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9530,10 +9558,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -9551,10 +9579,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -9693,7 +9721,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -9832,15 +9860,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -9892,7 +9920,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9906,7 +9934,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9925,7 +9953,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9994,7 +10022,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10011,10 +10039,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -10032,10 +10060,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10174,7 +10202,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10313,15 +10341,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -10373,7 +10401,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10387,7 +10415,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10406,7 +10434,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10475,7 +10503,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10492,10 +10520,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>152</v>
@@ -10513,10 +10541,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10655,7 +10683,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10794,6 +10822,487 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -10954,10 +11463,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10974,10 +11483,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -10991,13 +11500,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -11267,7 +11776,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,66 +4,68 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
     <sheet name="表一览" sheetId="2" r:id="rId2"/>
     <sheet name="用户表" sheetId="3" r:id="rId3"/>
     <sheet name="工长表" sheetId="4" r:id="rId4"/>
-    <sheet name="基本信息表" sheetId="5" r:id="rId5"/>
-    <sheet name="实名制表" sheetId="6" r:id="rId6"/>
-    <sheet name="时间表" sheetId="7" r:id="rId7"/>
-    <sheet name="家装百科分类表" sheetId="8" r:id="rId8"/>
-    <sheet name="家装百科文章表" sheetId="9" r:id="rId9"/>
-    <sheet name="登录记录表" sheetId="10" r:id="rId10"/>
-    <sheet name="效果图收藏表" sheetId="11" r:id="rId11"/>
-    <sheet name="成本结果收藏表" sheetId="12" r:id="rId12"/>
-    <sheet name="验证码表" sheetId="13" r:id="rId13"/>
-    <sheet name="短信轰炸表" sheetId="14" r:id="rId14"/>
-    <sheet name="黑名单表" sheetId="15" r:id="rId15"/>
-    <sheet name="收货地址表" sheetId="16" r:id="rId16"/>
-    <sheet name="消息表" sheetId="17" r:id="rId17"/>
+    <sheet name="用户信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="工长信息表" sheetId="25" r:id="rId6"/>
+    <sheet name="实名制表" sheetId="6" r:id="rId7"/>
+    <sheet name="时间表" sheetId="7" r:id="rId8"/>
+    <sheet name="家装百科分类表" sheetId="8" r:id="rId9"/>
+    <sheet name="家装百科文章表" sheetId="9" r:id="rId10"/>
+    <sheet name="登录记录表" sheetId="10" r:id="rId11"/>
+    <sheet name="效果图收藏表" sheetId="11" r:id="rId12"/>
+    <sheet name="成本结果收藏表" sheetId="12" r:id="rId13"/>
+    <sheet name="验证码表" sheetId="13" r:id="rId14"/>
+    <sheet name="短信轰炸表" sheetId="14" r:id="rId15"/>
+    <sheet name="黑名单表" sheetId="15" r:id="rId16"/>
+    <sheet name="收货地址表" sheetId="16" r:id="rId17"/>
     <sheet name="token表" sheetId="24" r:id="rId18"/>
-    <sheet name="字典表" sheetId="18" r:id="rId19"/>
-    <sheet name="木工表" sheetId="19" r:id="rId20"/>
-    <sheet name="水电工表" sheetId="20" r:id="rId21"/>
-    <sheet name="瓦工表" sheetId="21" r:id="rId22"/>
-    <sheet name="油漆工表" sheetId="22" r:id="rId23"/>
-    <sheet name="第三方表" sheetId="23" r:id="rId24"/>
+    <sheet name="店铺表" sheetId="17" r:id="rId19"/>
+    <sheet name="字典表" sheetId="18" r:id="rId20"/>
+    <sheet name="木工表" sheetId="19" r:id="rId21"/>
+    <sheet name="水电工表" sheetId="20" r:id="rId22"/>
+    <sheet name="瓦工表" sheetId="21" r:id="rId23"/>
+    <sheet name="油漆工表" sheetId="22" r:id="rId24"/>
+    <sheet name="第三方表" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">用户表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">更新日志!$A$1:$L$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">表一览!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">工长表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">基本信息表!$A$1:$G$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">实名制表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="23">第三方表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">时间表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">木工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">水电工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">瓦工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">油漆工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">字典表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">收货地址表!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">验证码表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">短信轰炸表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">黑名单表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">家装百科分类表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">家装百科文章表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">登录记录表!$A$1:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">消息表!$A$1:$G$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">效果图收藏表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">成本结果收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">用户信息表!$A$1:$G$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">实名制表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">第三方表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">时间表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">木工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">水电工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">瓦工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">油漆工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">字典表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">收货地址表!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">验证码表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">短信轰炸表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">黑名单表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">家装百科分类表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">家装百科文章表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">登录记录表!$A$1:$G$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">店铺表!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">效果图收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">成本结果收藏表!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">token表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">工长信息表!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>更新日期</t>
   </si>
@@ -446,31 +448,34 @@
     </r>
   </si>
   <si>
+    <t>hh_foreman</t>
+  </si>
+  <si>
     <t>工长ID</t>
   </si>
   <si>
-    <t>worker_id</t>
+    <t>foreman_id</t>
   </si>
   <si>
     <t>工长账号</t>
   </si>
   <si>
-    <t>worker_account</t>
+    <t>foreman_account</t>
   </si>
   <si>
     <t>工长登录密码</t>
   </si>
   <si>
-    <t>worker_password</t>
+    <t>foreman_password</t>
   </si>
   <si>
     <t>工长类型</t>
   </si>
   <si>
-    <t>worker_type</t>
-  </si>
-  <si>
-    <t>woker_id</t>
+    <t>foreman_type</t>
+  </si>
+  <si>
+    <t>用户信息表</t>
   </si>
   <si>
     <t>userinfo_userid</t>
@@ -581,6 +586,45 @@
     <t>home_district</t>
   </si>
   <si>
+    <t>工长信息表</t>
+  </si>
+  <si>
+    <t>hh_foremaninfo</t>
+  </si>
+  <si>
+    <t>foremaninfo_userid</t>
+  </si>
+  <si>
+    <t>foremaninfo_nickname</t>
+  </si>
+  <si>
+    <t>foremaninfo_sex</t>
+  </si>
+  <si>
+    <t>foremaninfo_age</t>
+  </si>
+  <si>
+    <t>foremaninfo_email</t>
+  </si>
+  <si>
+    <t>foremaninfo_phone</t>
+  </si>
+  <si>
+    <t>foremaninfo_img</t>
+  </si>
+  <si>
+    <t>从业时间</t>
+  </si>
+  <si>
+    <t>foremaninfo_worktime</t>
+  </si>
+  <si>
+    <t>服务区域</t>
+  </si>
+  <si>
+    <t>foremaninfo_servicearea</t>
+  </si>
+  <si>
     <t>real_userid</t>
   </si>
   <si>
@@ -887,48 +931,6 @@
     <t>1：默认地址 2：非默认地址</t>
   </si>
   <si>
-    <t>用于存放消息的信息</t>
-  </si>
-  <si>
-    <t>消息标题</t>
-  </si>
-  <si>
-    <t>msgtitle</t>
-  </si>
-  <si>
-    <t>消息内容</t>
-  </si>
-  <si>
-    <t>msgcontent</t>
-  </si>
-  <si>
-    <t>消息类型</t>
-  </si>
-  <si>
-    <t>msgtype</t>
-  </si>
-  <si>
-    <t>发送用户id</t>
-  </si>
-  <si>
-    <t>senduserid</t>
-  </si>
-  <si>
-    <t>接收用户id</t>
-  </si>
-  <si>
-    <t>receiveuserid</t>
-  </si>
-  <si>
-    <t>是否已读</t>
-  </si>
-  <si>
-    <t>isread</t>
-  </si>
-  <si>
-    <t>1：已读 0：未读</t>
-  </si>
-  <si>
     <t>token表</t>
   </si>
   <si>
@@ -942,6 +944,69 @@
   </si>
   <si>
     <t>flag</t>
+  </si>
+  <si>
+    <t>店铺表</t>
+  </si>
+  <si>
+    <t>hh_shop</t>
+  </si>
+  <si>
+    <t>用于存放店铺的信息</t>
+  </si>
+  <si>
+    <t>店铺id</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>int(10）</t>
+  </si>
+  <si>
+    <t>店长id</t>
+  </si>
+  <si>
+    <t>shopper_id</t>
+  </si>
+  <si>
+    <t>店铺名</t>
+  </si>
+  <si>
+    <t>shop_name</t>
+  </si>
+  <si>
+    <t>店铺认证</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>开店时间</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>服务标签</t>
+  </si>
+  <si>
+    <t>servicetag</t>
+  </si>
+  <si>
+    <t>servicearea</t>
+  </si>
+  <si>
+    <t>店铺地址</t>
+  </si>
+  <si>
+    <t>shop_address</t>
+  </si>
+  <si>
+    <t>店铺描述</t>
+  </si>
+  <si>
+    <t>shop_descibe</t>
   </si>
   <si>
     <t>字典表</t>
@@ -1036,10 +1101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1127,13 +1192,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1156,9 +1214,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,8 +1249,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,34 +1273,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,7 +1297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,6 +1312,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1248,32 +1328,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1314,7 +1379,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,37 +1457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,55 +1481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,43 +1517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,26 +2433,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2410,8 +2469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2420,7 +2479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2440,11 +2499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2456,10 +2521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2468,140 +2533,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,15 +2934,18 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2954,7 +3022,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2962,6 +3030,18 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="51" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2985,6 +3065,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3460,278 +3543,278 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="18.75" spans="2:11">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152" t="s">
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="152" t="s">
+      <c r="J2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="170"/>
+      <c r="K2" s="176"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="155"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="171"/>
+      <c r="K3" s="177"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="164"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="170"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="171"/>
+      <c r="K5" s="177"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="153"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="164"/>
+      <c r="I6" s="170"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="171"/>
+      <c r="K6" s="177"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="174"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="180"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="171"/>
+      <c r="K7" s="177"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="174"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="180"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="171"/>
+      <c r="K8" s="177"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="174"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="180"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="171"/>
+      <c r="K9" s="177"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="174"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="180"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="171"/>
+      <c r="K10" s="177"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="174"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="180"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="171"/>
+      <c r="K11" s="177"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="161"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="174"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="180"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="171"/>
+      <c r="K12" s="177"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="174"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="180"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="171"/>
+      <c r="K13" s="177"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="174"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="180"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="171"/>
+      <c r="K14" s="177"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="174"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="180"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="171"/>
+      <c r="K15" s="177"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="174"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="180"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="171"/>
+      <c r="K16" s="177"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="174"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="180"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="171"/>
+      <c r="K17" s="177"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="174"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="180"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="171"/>
+      <c r="K18" s="177"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="174"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="180"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="171"/>
+      <c r="K19" s="177"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="174"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="180"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="171"/>
+      <c r="K20" s="177"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="174"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="180"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="171"/>
+      <c r="K21" s="177"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="180"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="171"/>
+      <c r="K22" s="177"/>
     </row>
     <row r="23" ht="14.25" spans="2:11">
-      <c r="B23" s="143"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="175"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3789,6 +3872,498 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="113">
+        <v>6</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="112"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:7">
+      <c r="A19" s="73"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="116"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" ht="19.5" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="68"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="109"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="88"/>
+    </row>
+    <row r="26" ht="19.5" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="68">
+        <v>1</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" ht="19.5" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3967,13 +4542,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -3984,13 +4559,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
@@ -4001,77 +4576,77 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="110">
+      <c r="A18" s="111">
         <v>6</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
+      <c r="B18" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="95">
+      <c r="A19" s="96">
         <v>7</v>
       </c>
-      <c r="B19" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="B19" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="97"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="100">
+      <c r="A20" s="101">
         <v>8</v>
       </c>
-      <c r="B20" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
+      <c r="B20" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="49"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="54"/>
@@ -4131,12 +4706,12 @@
       <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="108"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="88"/>
     </row>
     <row r="28" ht="19.5" spans="1:7">
@@ -4313,7 +4888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G37"/>
@@ -4378,7 +4953,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -4392,7 +4967,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -4411,7 +4986,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4494,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>77</v>
@@ -4511,53 +5086,53 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
       <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="110"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="49"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="54"/>
@@ -4617,12 +5192,12 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="108"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="88"/>
     </row>
     <row r="27" ht="19.5" spans="1:7">
@@ -4665,505 +5240,7 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" ht="19.5" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="68"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:7">
-      <c r="A36" s="68"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="48" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" ht="19.5" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="68"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="108"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="88"/>
-    </row>
-    <row r="27" ht="19.5" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="68">
-        <v>1</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="70" t="s">
-        <v>202</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
@@ -5300,20 +5377,20 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:1">
@@ -5362,7 +5439,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -5376,7 +5453,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -5395,7 +5472,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5456,41 +5533,38 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:7">
       <c r="A14" s="35">
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>211</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7">
@@ -5498,16 +5572,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>215</v>
-      </c>
       <c r="D16" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
@@ -5515,54 +5589,48 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="54"/>
@@ -5622,15 +5690,15 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A26" s="109"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -5660,7 +5728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" s="1" customFormat="1" spans="1:7">
       <c r="A29" s="68">
         <v>1</v>
       </c>
@@ -5670,11 +5738,11 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
@@ -5695,7 +5763,7 @@
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
+    <row r="32" ht="19.5" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -5706,7 +5774,7 @@
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="32" t="s">
         <v>5</v>
       </c>
@@ -5734,7 +5802,7 @@
       <c r="F34" s="71"/>
       <c r="G34" s="78"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" s="1" customFormat="1" spans="1:7">
       <c r="A35" s="68"/>
       <c r="B35" s="77"/>
       <c r="C35" s="79"/>
@@ -5743,7 +5811,7 @@
       <c r="F35" s="80"/>
       <c r="G35" s="78"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" s="1" customFormat="1" spans="1:7">
       <c r="A36" s="68"/>
       <c r="B36" s="77"/>
       <c r="C36" s="82"/>
@@ -5807,6 +5875,513 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>6</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" ht="19.5" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="68"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="68">
+        <v>1</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="68"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5968,10 +6543,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -5980,7 +6555,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5988,13 +6563,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44"/>
@@ -6005,13 +6580,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -6133,472 +6708,6 @@
       <c r="D26" s="71"/>
       <c r="E26" s="70" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="68"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="93" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" ht="19.5" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="68"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="68">
-        <v>1</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="70" t="s">
-        <v>42</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72" t="s">
@@ -6735,6 +6844,472 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" ht="19.5" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="68"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="68">
+        <v>1</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="68"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="78"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
@@ -6896,13 +7471,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -6913,19 +7488,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="89"/>
+        <v>122</v>
+      </c>
+      <c r="E15" s="90"/>
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6933,15 +7508,15 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="89"/>
+        <v>122</v>
+      </c>
+      <c r="E16" s="90"/>
       <c r="F16" s="44"/>
       <c r="G16" s="43"/>
     </row>
@@ -6950,15 +7525,15 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="89"/>
+        <v>122</v>
+      </c>
+      <c r="E17" s="90"/>
       <c r="F17" s="44"/>
       <c r="G17" s="43"/>
     </row>
@@ -6967,15 +7542,15 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="89"/>
+        <v>122</v>
+      </c>
+      <c r="E18" s="90"/>
       <c r="F18" s="47"/>
       <c r="G18" s="48"/>
     </row>
@@ -6984,15 +7559,15 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="89"/>
+        <v>141</v>
+      </c>
+      <c r="E19" s="90"/>
       <c r="F19" s="47"/>
       <c r="G19" s="48"/>
     </row>
@@ -7001,15 +7576,15 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="92"/>
+        <v>141</v>
+      </c>
+      <c r="E20" s="93"/>
       <c r="F20" s="47"/>
       <c r="G20" s="48"/>
     </row>
@@ -7018,10 +7593,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>80</v>
@@ -7035,10 +7610,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>86</v>
@@ -7052,22 +7627,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="90"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="45"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -7324,13 +7899,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G9"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7389,7 +7964,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -7403,7 +7978,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -7422,7 +7997,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -7488,13 +8063,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -7505,575 +8080,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="35">
-        <v>3</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="J16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>4</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>5</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>6</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
-        <v>7</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
-        <v>8</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="90"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="68">
-        <v>1</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:7">
-      <c r="A36" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:7">
-      <c r="A37" s="68"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="68"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="68"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
         <v>266</v>
       </c>
       <c r="C15" s="88" t="s">
         <v>267</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="38"/>
@@ -8084,11 +8097,11 @@
       <c r="B16" s="36"/>
       <c r="C16" s="40"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8096,12 +8109,12 @@
       <c r="B17" s="36"/>
       <c r="C17" s="41"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="89"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="44"/>
       <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="90"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -8109,7 +8122,7 @@
       <c r="F18" s="47"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="49"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -8166,7 +8179,7 @@
       <c r="F23" s="71"/>
       <c r="G23" s="62"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="14.25" spans="1:7">
       <c r="A24" s="63"/>
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
@@ -8231,7 +8244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="14.25" spans="1:7">
       <c r="A29" s="73"/>
       <c r="B29" s="74"/>
       <c r="C29" s="75"/>
@@ -8370,10 +8383,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8382,8 +8395,8 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:1">
@@ -8514,146 +8527,186 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:7">
       <c r="A14" s="35">
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>275</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>277</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="35">
+        <v>3</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
         <v>4</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="B17" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>5</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="F18" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" ht="19.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="A19" s="35">
+        <v>6</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="90"/>
+      <c r="F19" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
+        <v>7</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="34" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="35">
+        <v>8</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="68"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="62"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="54"/>
@@ -8664,9 +8717,9 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+    <row r="25" ht="19.5" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -8680,45 +8733,37 @@
         <v>5</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="34" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="68">
-        <v>1</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>76</v>
-      </c>
+      <c r="A27" s="68"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
-        <v>269</v>
-      </c>
+      <c r="E27" s="70"/>
       <c r="F27" s="71"/>
-      <c r="G27" s="72" t="s">
-        <v>76</v>
-      </c>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="54"/>
@@ -8731,7 +8776,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -8740,7 +8785,7 @@
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="32" t="s">
         <v>5</v>
       </c>
@@ -8759,41 +8804,106 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="68">
+        <v>1</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="D32" s="71"/>
-      <c r="E32" s="70"/>
+      <c r="E32" s="70" t="s">
+        <v>269</v>
+      </c>
       <c r="F32" s="71"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="78"/>
+      <c r="G32" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="68"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="78"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="68"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="78"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="68"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -8808,12 +8918,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
@@ -8826,14 +8930,20 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="B8:G9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8860,417 +8970,417 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="19.5" spans="2:8">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="130"/>
+      <c r="H2" s="136"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="2:8">
-      <c r="B3" s="131">
+      <c r="B3" s="137">
         <v>1</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="136"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="2:8">
-      <c r="B4" s="131">
+      <c r="B4" s="137">
         <v>2</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="139" t="s">
+      <c r="F4" s="140"/>
+      <c r="G4" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="140"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:8">
-      <c r="B5" s="131">
+      <c r="B5" s="137">
         <v>3</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="140"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="2:8">
-      <c r="B6" s="131">
+      <c r="B6" s="137">
         <v>4</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="134" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="139" t="s">
+      <c r="F6" s="140"/>
+      <c r="G6" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="140"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="2:8">
-      <c r="B7" s="131">
+      <c r="B7" s="137">
         <v>5</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="134" t="s">
+      <c r="D7" s="144"/>
+      <c r="E7" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="139" t="s">
+      <c r="F7" s="140"/>
+      <c r="G7" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="140"/>
+      <c r="H7" s="146"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="2:8">
-      <c r="B8" s="131">
+      <c r="B8" s="137">
         <v>6</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="134" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="139" t="s">
+      <c r="F8" s="140"/>
+      <c r="G8" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="140"/>
+      <c r="H8" s="146"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="2:8">
-      <c r="B9" s="131">
+      <c r="B9" s="137">
         <v>7</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="134" t="s">
+      <c r="D9" s="147"/>
+      <c r="E9" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="139" t="s">
+      <c r="F9" s="140"/>
+      <c r="G9" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="142"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="2:8">
-      <c r="B10" s="131">
+      <c r="B10" s="137">
         <v>8</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="134" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="139" t="s">
+      <c r="F10" s="140"/>
+      <c r="G10" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="142"/>
+      <c r="H10" s="148"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="2:8">
-      <c r="B11" s="131">
+      <c r="B11" s="137">
         <v>9</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="134" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="139" t="s">
+      <c r="F11" s="140"/>
+      <c r="G11" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="142"/>
+      <c r="H11" s="148"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="2:8">
-      <c r="B12" s="131">
+      <c r="B12" s="137">
         <v>10</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="134" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="134"/>
-      <c r="G12" s="139" t="s">
+      <c r="F12" s="140"/>
+      <c r="G12" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="142"/>
+      <c r="H12" s="148"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:8">
-      <c r="B13" s="131">
+      <c r="B13" s="137">
         <v>11</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="134" t="s">
+      <c r="D13" s="147"/>
+      <c r="E13" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="134"/>
-      <c r="G13" s="139" t="s">
+      <c r="F13" s="140"/>
+      <c r="G13" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="142"/>
+      <c r="H13" s="148"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="2:8">
-      <c r="B14" s="131">
+      <c r="B14" s="137">
         <v>12</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="134" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="134"/>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="140"/>
+      <c r="G14" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="142"/>
+      <c r="H14" s="148"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="2:8">
-      <c r="B15" s="131">
+      <c r="B15" s="137">
         <v>13</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="134" t="s">
+      <c r="D15" s="147"/>
+      <c r="E15" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="139" t="s">
+      <c r="F15" s="140"/>
+      <c r="G15" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="142"/>
+      <c r="H15" s="148"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="2:8">
-      <c r="B16" s="131">
+      <c r="B16" s="137">
         <v>14</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="139" t="s">
+      <c r="F16" s="140"/>
+      <c r="G16" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="142"/>
+      <c r="H16" s="148"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="2:8">
-      <c r="B17" s="131">
+      <c r="B17" s="137">
         <v>15</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="134" t="s">
+      <c r="D17" s="144"/>
+      <c r="E17" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="139" t="s">
+      <c r="F17" s="140"/>
+      <c r="G17" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="140"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="2:8">
-      <c r="B18" s="131">
+      <c r="B18" s="137">
         <v>16</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="139" t="s">
+      <c r="F18" s="140"/>
+      <c r="G18" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="140"/>
+      <c r="H18" s="146"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="2:8">
-      <c r="B19" s="131">
+      <c r="B19" s="137">
         <v>17</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="134" t="s">
+      <c r="D19" s="143"/>
+      <c r="E19" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="134"/>
-      <c r="G19" s="139" t="s">
+      <c r="F19" s="140"/>
+      <c r="G19" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="140"/>
+      <c r="H19" s="146"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:8">
-      <c r="B20" s="131">
+      <c r="B20" s="137">
         <v>18</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="134" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="139" t="s">
+      <c r="F20" s="140"/>
+      <c r="G20" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="140"/>
+      <c r="H20" s="146"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:8">
-      <c r="B21" s="131"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:8">
-      <c r="B22" s="131"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:8">
-      <c r="B23" s="131"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:8">
-      <c r="B24" s="131"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="2:8">
-      <c r="B25" s="131"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="2:8">
-      <c r="B26" s="131"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="2:8">
-      <c r="B27" s="131"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="140"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="2:8">
-      <c r="B28" s="131"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="2:8">
-      <c r="B29" s="131"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:8">
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1"/>
@@ -9379,15 +9489,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -9439,7 +9549,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9453,7 +9563,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9472,7 +9582,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9538,19 +9648,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9558,31 +9668,27 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35">
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -9649,17 +9755,11 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="68">
-        <v>1</v>
-      </c>
+      <c r="A22" s="68"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="70" t="s">
-        <v>159</v>
-      </c>
+      <c r="C22" s="70"/>
       <c r="D22" s="71"/>
-      <c r="E22" s="70" t="s">
-        <v>96</v>
-      </c>
+      <c r="E22" s="70"/>
       <c r="F22" s="71"/>
       <c r="G22" s="62"/>
     </row>
@@ -9717,15 +9817,15 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
@@ -9860,15 +9960,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -9920,7 +10020,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9934,7 +10034,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9953,7 +10053,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10022,7 +10122,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10031,7 +10131,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10039,13 +10139,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -10060,10 +10160,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10135,7 +10235,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -10198,11 +10298,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10341,15 +10441,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -10401,7 +10501,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10415,7 +10515,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10434,7 +10534,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10503,7 +10603,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10512,7 +10612,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10520,13 +10620,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -10541,10 +10641,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10616,7 +10716,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -10679,11 +10779,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10822,15 +10922,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -10882,7 +10982,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10896,7 +10996,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10915,7 +11015,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10984,7 +11084,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10993,7 +11093,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11001,13 +11101,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -11022,10 +11122,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -11097,7 +11197,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -11160,11 +11260,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -11303,6 +11403,487 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -11463,10 +12044,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11475,7 +12056,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11483,10 +12064,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -11500,13 +12081,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -11994,10 +12575,10 @@
         <v>89</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="112" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12008,7 +12589,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
-      <c r="G18" s="115"/>
+      <c r="G18" s="116"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="54"/>
@@ -12074,12 +12655,12 @@
       <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="88"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="88"/>
     </row>
     <row r="25" ht="19.5" spans="1:7">
@@ -12261,8 +12842,8 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -12335,7 +12916,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -12420,10 +13001,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12437,10 +13018,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -12454,10 +13035,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>86</v>
@@ -12471,19 +13052,19 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="112" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12494,7 +13075,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
-      <c r="G18" s="115"/>
+      <c r="G18" s="116"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="54"/>
@@ -12541,7 +13122,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -12560,12 +13141,12 @@
       <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="88"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="88"/>
     </row>
     <row r="25" ht="19.5" spans="1:7">
@@ -12604,15 +13185,15 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
@@ -12747,8 +13328,8 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12806,7 +13387,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -12908,7 +13489,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12917,7 +13498,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12925,13 +13506,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -12942,10 +13523,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>89</v>
@@ -12955,7 +13536,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12963,17 +13544,17 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="89"/>
+        <v>122</v>
+      </c>
+      <c r="E17" s="90"/>
       <c r="F17" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="43"/>
     </row>
@@ -12982,17 +13563,17 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="48"/>
     </row>
@@ -13001,15 +13582,15 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="89"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="47"/>
       <c r="G19" s="48"/>
     </row>
@@ -13017,58 +13598,58 @@
       <c r="A20" s="35">
         <v>8</v>
       </c>
-      <c r="B20" s="116" t="s">
-        <v>127</v>
+      <c r="B20" s="117" t="s">
+        <v>128</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="117" t="s">
         <v>131</v>
+      </c>
+      <c r="G20" s="133" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35">
         <v>9</v>
       </c>
-      <c r="B21" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="119" t="s">
+      <c r="B21" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121" t="s">
+      <c r="C21" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="122"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="127"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35">
         <v>10</v>
       </c>
-      <c r="B22" s="123" t="s">
-        <v>134</v>
+      <c r="B22" s="128" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="92"/>
+        <v>122</v>
+      </c>
+      <c r="E22" s="93"/>
       <c r="F22" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="48"/>
     </row>
@@ -13076,18 +13657,18 @@
       <c r="A23" s="35">
         <v>11</v>
       </c>
-      <c r="B23" s="123" t="s">
-        <v>136</v>
+      <c r="B23" s="128" t="s">
+        <v>137</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="92"/>
+        <v>122</v>
+      </c>
+      <c r="E23" s="93"/>
       <c r="F23" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -13095,18 +13676,18 @@
       <c r="A24" s="35">
         <v>12</v>
       </c>
-      <c r="B24" s="123" t="s">
-        <v>138</v>
+      <c r="B24" s="128" t="s">
+        <v>139</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="92"/>
+        <v>141</v>
+      </c>
+      <c r="E24" s="93"/>
       <c r="F24" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="48"/>
     </row>
@@ -13114,18 +13695,18 @@
       <c r="A25" s="35">
         <v>13</v>
       </c>
-      <c r="B25" s="123" t="s">
-        <v>141</v>
+      <c r="B25" s="128" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="92"/>
+        <v>122</v>
+      </c>
+      <c r="E25" s="93"/>
       <c r="F25" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="48"/>
     </row>
@@ -13133,18 +13714,18 @@
       <c r="A26" s="35">
         <v>14</v>
       </c>
-      <c r="B26" s="123" t="s">
-        <v>143</v>
+      <c r="B26" s="128" t="s">
+        <v>144</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="92"/>
+        <v>122</v>
+      </c>
+      <c r="E26" s="93"/>
       <c r="F26" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="48"/>
     </row>
@@ -13152,36 +13733,36 @@
       <c r="A27" s="35">
         <v>15</v>
       </c>
-      <c r="B27" s="123" t="s">
-        <v>145</v>
+      <c r="B27" s="128" t="s">
+        <v>146</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="92"/>
+        <v>122</v>
+      </c>
+      <c r="E27" s="93"/>
       <c r="F27" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="124"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="92"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="47"/>
       <c r="G28" s="48"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
-      <c r="E29" s="127"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
     </row>
@@ -13428,6 +14009,729 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>6</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="F18" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
+        <v>7</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="90"/>
+      <c r="F19" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
+        <v>8</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35">
+        <v>9</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="121"/>
+      <c r="F21" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="122"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35">
+        <v>10</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="121"/>
+      <c r="F22" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="122"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35">
+        <v>11</v>
+      </c>
+      <c r="B23" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="127"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35">
+        <v>12</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="93"/>
+      <c r="F24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="35">
+        <v>13</v>
+      </c>
+      <c r="B25" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="93"/>
+      <c r="F25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35">
+        <v>14</v>
+      </c>
+      <c r="B26" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35">
+        <v>15</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35">
+        <v>16</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="93"/>
+      <c r="F28" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35">
+        <v>17</v>
+      </c>
+      <c r="B29" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="93"/>
+      <c r="F29" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="129"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" ht="19.5" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="68">
+        <v>1</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:7">
+      <c r="A45" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="57"/>
+      <c r="G45" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:7">
+      <c r="A46" s="68"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="68"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="78"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="68"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="78"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A11" workbookViewId="0">
@@ -13592,7 +14896,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -13601,7 +14905,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13609,13 +14913,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -13626,13 +14930,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -13643,10 +14947,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -13660,13 +14964,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="47"/>
@@ -13677,13 +14981,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="52"/>
@@ -13791,7 +15095,7 @@
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -13929,7 +15233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J35"/>
@@ -14096,7 +15400,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -14105,7 +15409,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -14113,13 +15417,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -14254,7 +15558,7 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
@@ -14392,7 +15696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G34"/>
@@ -14556,13 +15860,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -14573,10 +15877,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -14590,20 +15894,20 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -14613,7 +15917,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="115"/>
+      <c r="G17" s="116"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="54"/>
@@ -14673,12 +15977,12 @@
       <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="88"/>
     </row>
     <row r="24" ht="19.5" spans="1:7">
@@ -14853,496 +16157,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="112">
-        <v>6</v>
-      </c>
-      <c r="B18" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="111"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="73"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="115"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" ht="19.5" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="68"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="108"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="88"/>
-    </row>
-    <row r="26" ht="19.5" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="68">
-        <v>1</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" ht="19.5" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="68"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -12,62 +12,60 @@
     <sheet name="用户表" sheetId="3" r:id="rId3"/>
     <sheet name="工长表" sheetId="4" r:id="rId4"/>
     <sheet name="用户信息表" sheetId="5" r:id="rId5"/>
-    <sheet name="工长信息表" sheetId="25" r:id="rId6"/>
-    <sheet name="头像表" sheetId="26" r:id="rId7"/>
-    <sheet name="实名制表" sheetId="6" r:id="rId8"/>
-    <sheet name="时间表" sheetId="7" r:id="rId9"/>
-    <sheet name="家装百科分类表" sheetId="8" r:id="rId10"/>
-    <sheet name="家装百科文章表" sheetId="9" r:id="rId11"/>
-    <sheet name="登录记录表" sheetId="10" r:id="rId12"/>
-    <sheet name="效果图收藏表" sheetId="11" r:id="rId13"/>
-    <sheet name="成本结果收藏表" sheetId="12" r:id="rId14"/>
-    <sheet name="验证码表" sheetId="13" r:id="rId15"/>
-    <sheet name="短信轰炸表" sheetId="14" r:id="rId16"/>
-    <sheet name="黑名单表" sheetId="15" r:id="rId17"/>
-    <sheet name="收货地址表" sheetId="16" r:id="rId18"/>
-    <sheet name="token表" sheetId="24" r:id="rId19"/>
-    <sheet name="店铺表" sheetId="17" r:id="rId20"/>
-    <sheet name="字典表" sheetId="18" r:id="rId21"/>
-    <sheet name="木工表" sheetId="19" r:id="rId22"/>
-    <sheet name="水电工表" sheetId="20" r:id="rId23"/>
-    <sheet name="瓦工表" sheetId="21" r:id="rId24"/>
-    <sheet name="油漆工表" sheetId="22" r:id="rId25"/>
-    <sheet name="第三方表" sheetId="23" r:id="rId26"/>
+    <sheet name="头像表" sheetId="26" r:id="rId6"/>
+    <sheet name="实名制表" sheetId="6" r:id="rId7"/>
+    <sheet name="时间表" sheetId="7" r:id="rId8"/>
+    <sheet name="家装百科分类表" sheetId="8" r:id="rId9"/>
+    <sheet name="家装百科文章表" sheetId="9" r:id="rId10"/>
+    <sheet name="登录记录表" sheetId="10" r:id="rId11"/>
+    <sheet name="效果图收藏表" sheetId="11" r:id="rId12"/>
+    <sheet name="成本结果收藏表" sheetId="12" r:id="rId13"/>
+    <sheet name="验证码表" sheetId="13" r:id="rId14"/>
+    <sheet name="短信轰炸表" sheetId="14" r:id="rId15"/>
+    <sheet name="黑名单表" sheetId="15" r:id="rId16"/>
+    <sheet name="收货地址表" sheetId="16" r:id="rId17"/>
+    <sheet name="token表" sheetId="24" r:id="rId18"/>
+    <sheet name="店铺表" sheetId="17" r:id="rId19"/>
+    <sheet name="字典表" sheetId="18" r:id="rId20"/>
+    <sheet name="木工表" sheetId="19" r:id="rId21"/>
+    <sheet name="水电工表" sheetId="20" r:id="rId22"/>
+    <sheet name="瓦工表" sheetId="21" r:id="rId23"/>
+    <sheet name="油漆工表" sheetId="22" r:id="rId24"/>
+    <sheet name="第三方表" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">用户表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">更新日志!$A$1:$L$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">表一览!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">工长表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">用户信息表!$A$1:$G$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">实名制表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="25">第三方表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">时间表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">木工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">水电工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="23">瓦工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="24">油漆工表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">字典表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">收货地址表!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">验证码表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">短信轰炸表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">黑名单表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">家装百科分类表!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">家装百科文章表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">登录记录表!$A$1:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">店铺表!$A$1:$G$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">效果图收藏表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">成本结果收藏表!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">token表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">工长信息表!$A$1:$G$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">头像表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">用户信息表!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">实名制表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">第三方表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">时间表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">木工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">水电工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">瓦工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">油漆工表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">字典表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">收货地址表!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">验证码表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">短信轰炸表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">黑名单表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">家装百科分类表!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">家装百科文章表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">登录记录表!$A$1:$G$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">店铺表!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">效果图收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">成本结果收藏表!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">token表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">头像表!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314">
   <si>
     <t>更新日期</t>
   </si>
@@ -573,34 +571,43 @@
     <t>home_district</t>
   </si>
   <si>
-    <t>工长信息表</t>
-  </si>
-  <si>
-    <t>hh_foremaninfo</t>
-  </si>
-  <si>
-    <t>foremaninfo_userid</t>
-  </si>
-  <si>
-    <t>foremaninfo_nickname</t>
-  </si>
-  <si>
-    <t>foremaninfo_sex</t>
-  </si>
-  <si>
-    <t>foremaninfo_age</t>
-  </si>
-  <si>
-    <t>foremaninfo_email</t>
-  </si>
-  <si>
-    <t>foremaninfo_phone</t>
+    <t>从业时间</t>
+  </si>
+  <si>
+    <t>worktime</t>
+  </si>
+  <si>
+    <t>服务区域</t>
+  </si>
+  <si>
+    <t>servicearea</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>1：用户 2：工长</t>
+  </si>
+  <si>
+    <t>头像图片表</t>
+  </si>
+  <si>
+    <t>hh_portrait</t>
+  </si>
+  <si>
+    <t>用于存放头像图片信息</t>
+  </si>
+  <si>
+    <t>portrait_userid</t>
   </si>
   <si>
     <t>用户头像</t>
   </si>
   <si>
-    <t>foremaninfo_img</t>
+    <t>portraitimg</t>
   </si>
   <si>
     <t>varchar(50)</t>
@@ -612,33 +619,6 @@
     <t>有默认头像</t>
   </si>
   <si>
-    <t>从业时间</t>
-  </si>
-  <si>
-    <t>foremaninfo_worktime</t>
-  </si>
-  <si>
-    <t>服务区域</t>
-  </si>
-  <si>
-    <t>foremaninfo_servicearea</t>
-  </si>
-  <si>
-    <t>头像图片表</t>
-  </si>
-  <si>
-    <t>hh_portrait</t>
-  </si>
-  <si>
-    <t>用于存放头像图片信息</t>
-  </si>
-  <si>
-    <t>portrait_userid</t>
-  </si>
-  <si>
-    <t>portraitimg</t>
-  </si>
-  <si>
     <t>real_userid</t>
   </si>
   <si>
@@ -1008,9 +988,6 @@
     <t>servicetag</t>
   </si>
   <si>
-    <t>servicearea</t>
-  </si>
-  <si>
     <t>店铺地址</t>
   </si>
   <si>
@@ -1039,9 +1016,6 @@
   </si>
   <si>
     <t>所属类</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>content</t>
@@ -1116,9 +1090,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1206,7 +1180,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,85 +1249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,6 +1279,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,25 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,49 +1397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,6 +1463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1550,6 +1488,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,6 +2404,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2450,56 +2439,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2527,6 +2466,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2535,10 +2509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2547,79 +2521,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2628,55 +2602,55 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3059,20 +3033,20 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="52" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="52" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3877,469 +3851,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="87">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="73"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="116"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" ht="19.5" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="68"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="109"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="88"/>
-    </row>
-    <row r="24" ht="19.5" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="68">
-        <v>1</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" ht="19.5" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="68"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4500,10 +4011,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>122</v>
@@ -4517,10 +4028,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>136</v>
@@ -4534,13 +4045,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
@@ -4551,13 +4062,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="42"/>
@@ -4568,10 +4079,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D18" s="115" t="s">
         <v>122</v>
@@ -4829,7 +4340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G38"/>
@@ -5010,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -5027,10 +4538,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>136</v>
@@ -5044,10 +4555,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -5061,10 +4572,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D18" s="103" t="s">
         <v>136</v>
@@ -5078,10 +4589,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>136</v>
@@ -5095,10 +4606,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D20" s="103" t="s">
         <v>136</v>
@@ -5356,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G37"/>
@@ -5421,7 +4932,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -5435,7 +4946,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -5454,7 +4965,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5537,10 +5048,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>77</v>
@@ -5554,13 +5065,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
@@ -5708,7 +5219,505 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" ht="19.5" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="68"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="68"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>213</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" ht="19.5" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="68"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="109"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="68">
+        <v>1</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="70" t="s">
+        <v>214</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
@@ -5845,20 +5854,20 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:1">
@@ -5907,7 +5916,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -5921,7 +5930,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -5940,7 +5949,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6001,38 +6010,41 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" s="35">
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>79</v>
+        <v>222</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>223</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="42"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7">
@@ -6040,16 +6052,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>136</v>
       </c>
       <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
@@ -6057,48 +6069,54 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>227</v>
-      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="A18" s="35">
+        <v>6</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="49"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="54"/>
@@ -6158,15 +6176,15 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="109"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="88"/>
-    </row>
-    <row r="27" ht="19.5" spans="1:7">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -6196,7 +6214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="68">
         <v>1</v>
       </c>
@@ -6206,11 +6224,11 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
@@ -6231,7 +6249,7 @@
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" ht="19.5" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -6242,7 +6260,7 @@
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" s="1" customFormat="1" spans="1:7">
       <c r="A33" s="32" t="s">
         <v>5</v>
       </c>
@@ -6270,7 +6288,7 @@
       <c r="F34" s="71"/>
       <c r="G34" s="78"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="68"/>
       <c r="B35" s="77"/>
       <c r="C35" s="79"/>
@@ -6279,7 +6297,7 @@
       <c r="F35" s="80"/>
       <c r="G35" s="78"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="68"/>
       <c r="B36" s="77"/>
       <c r="C36" s="82"/>
@@ -6343,513 +6361,6 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" ht="19.5" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="68"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="68">
-        <v>1</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="68"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="78"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="68"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7014,7 +6525,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -7031,13 +6542,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44"/>
@@ -7048,10 +6559,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>122</v>
@@ -7176,6 +6687,472 @@
       <c r="D26" s="71"/>
       <c r="E26" s="70" t="s">
         <v>39</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="68"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="78"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" ht="19.5" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="68"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="68">
+        <v>1</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72" t="s">
@@ -7312,472 +7289,6 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" ht="19.5" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="68"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="68">
-        <v>1</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="68"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A13" workbookViewId="0">
@@ -7939,13 +7450,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -7956,10 +7467,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>122</v>
@@ -7976,10 +7487,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>122</v>
@@ -7993,10 +7504,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>122</v>
@@ -8010,10 +7521,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>122</v>
@@ -8027,10 +7538,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>136</v>
@@ -8044,10 +7555,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>136</v>
@@ -8061,10 +7572,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>80</v>
@@ -8078,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>86</v>
@@ -8095,17 +7606,17 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -8367,7 +7878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J37"/>
@@ -8432,7 +7943,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -8446,7 +7957,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -8465,7 +7976,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8531,10 +8042,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -8548,10 +8059,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>136</v>
@@ -8705,7 +8216,7 @@
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="72" t="s">
@@ -8840,6 +8351,574 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="35">
+        <v>3</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>4</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>5</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="F18" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
+        <v>6</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="90"/>
+      <c r="F19" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
+        <v>7</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35">
+        <v>8</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="92"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="68">
+        <v>1</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="68"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="78"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="68"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="78"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="68"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="B8:G9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9387,574 +9466,6 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="35">
-        <v>3</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="J16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>4</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>5</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>6</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
-        <v>7</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
-        <v>8</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="92"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="68">
-        <v>1</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:7">
-      <c r="A36" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:7">
-      <c r="A37" s="68"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="78"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="68"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="68"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
@@ -10017,7 +9528,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10031,7 +9542,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10050,7 +9561,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10116,10 +9627,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>122</v>
@@ -10136,10 +9647,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -10156,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10289,11 +9800,492 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
@@ -10428,15 +10420,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -10488,7 +10480,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10502,7 +10494,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10521,7 +10513,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10590,7 +10582,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10607,13 +10599,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -10628,10 +10620,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10703,7 +10695,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -10766,11 +10758,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10909,15 +10901,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -10969,7 +10961,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10983,7 +10975,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -11002,7 +10994,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -11071,7 +11063,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11088,13 +11080,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>307</v>
-      </c>
       <c r="D15" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -11109,10 +11101,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -11184,7 +11176,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -11247,11 +11239,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -11390,15 +11382,15 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
@@ -11450,7 +11442,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -11464,7 +11456,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -11483,7 +11475,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -11552,7 +11544,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11569,13 +11561,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44" t="s">
@@ -11590,10 +11582,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -11665,7 +11657,7 @@
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D22" s="71"/>
       <c r="E22" s="70" t="s">
@@ -11728,11 +11720,11 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -11871,487 +11863,6 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" ht="19.5" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="68">
-        <v>1</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68">
-        <v>1</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="78"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="78"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="68"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J35"/>
-  <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -12512,10 +12023,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12532,10 +12043,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -12549,13 +12060,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -13794,10 +13305,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14075,11 +13586,11 @@
       <c r="D20" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="130"/>
+      <c r="G20" s="128"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35">
@@ -14196,219 +13707,266 @@
       <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="121"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
+      <c r="A27" s="35">
+        <v>15</v>
+      </c>
+      <c r="B27" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="129"/>
+      <c r="F27" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="130"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="35">
+        <v>16</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="129"/>
+      <c r="F28" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35">
+        <v>17</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="93"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="130" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" ht="19.5" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" ht="19.5" spans="1:7">
+      <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="32" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B34" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C34" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56" t="s">
+      <c r="D34" s="57"/>
+      <c r="E34" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="34" t="s">
+      <c r="F34" s="57"/>
+      <c r="G34" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-    </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A36" s="2" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="32" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B39" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C39" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="56" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="34" t="s">
+      <c r="F39" s="57"/>
+      <c r="G39" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="68">
+    <row r="40" spans="1:7">
+      <c r="A40" s="68">
         <v>1</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70" t="s">
+      <c r="B40" s="69"/>
+      <c r="C40" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="70" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="F40" s="71"/>
+      <c r="G40" s="72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="53"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="53"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:7">
-      <c r="A42" s="32" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:7">
+      <c r="A44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B44" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C44" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="56" t="s">
+      <c r="D44" s="57"/>
+      <c r="E44" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="34" t="s">
+      <c r="F44" s="57"/>
+      <c r="G44" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:7">
-      <c r="A43" s="68"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="68"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="78"/>
-    </row>
-    <row r="45" spans="1:7">
+    <row r="45" s="1" customFormat="1" spans="1:7">
       <c r="A45" s="68"/>
       <c r="B45" s="77"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="78"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="73"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="86"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="68"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="78"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="68"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="78"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -14423,28 +13981,28 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="B8:G9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14456,732 +14014,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>7</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
-        <v>8</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
-        <v>9</v>
-      </c>
-      <c r="B21" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="127"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35">
-        <v>10</v>
-      </c>
-      <c r="B22" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="127"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35">
-        <v>11</v>
-      </c>
-      <c r="B23" s="124" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="130"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35">
-        <v>12</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35">
-        <v>13</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35">
-        <v>14</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35">
-        <v>15</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35">
-        <v>16</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="48"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35">
-        <v>17</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="119"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" ht="19.5" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="68">
-        <v>1</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="53"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:7">
-      <c r="A45" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:7">
-      <c r="A46" s="68"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="68"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="78"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="68"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="78"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -15240,7 +14075,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -15254,7 +14089,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -15273,7 +14108,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -15342,7 +14177,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -15359,20 +14194,20 @@
         <v>3</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" s="118" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15384,7 +14219,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="48"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="121"/>
       <c r="B17" s="122"/>
       <c r="C17" s="51"/>
@@ -15441,7 +14276,7 @@
       <c r="F22" s="61"/>
       <c r="G22" s="62"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="63"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
@@ -15499,14 +14334,14 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="73"/>
       <c r="B28" s="74"/>
       <c r="C28" s="75"/>
@@ -15670,7 +14505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J36"/>
@@ -15837,7 +14672,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -15857,10 +14692,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -15871,13 +14706,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -15888,10 +14723,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -15905,13 +14740,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="47"/>
@@ -15922,13 +14757,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="52"/>
@@ -16036,7 +14871,7 @@
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -16174,7 +15009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J35"/>
@@ -16341,7 +15176,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -16358,13 +15193,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -16499,7 +15334,7 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
@@ -16635,4 +15470,467 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="87">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="73"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="116"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" ht="19.5" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="68"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="109"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="88"/>
+    </row>
+    <row r="24" ht="19.5" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="68">
+        <v>1</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" ht="19.5" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="68"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="78"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="20580" windowHeight="11295" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
   <si>
     <t>更新日期</t>
   </si>
@@ -940,6 +940,9 @@
     <t>flag</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>店铺表</t>
   </si>
   <si>
@@ -1089,10 +1092,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1180,15 +1183,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1202,8 +1263,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,67 +1304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,23 +1319,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1367,25 +1370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,19 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,6 +1412,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1439,13 +1436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,25 +1496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,49 +1532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,6 +2404,50 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2434,39 +2481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2484,17 +2498,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2509,10 +2512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2521,136 +2524,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7883,8 +7886,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8072,10 +8075,18 @@
       <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="E16" s="90"/>
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
@@ -8424,7 +8435,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -8438,7 +8449,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -8457,7 +8468,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8506,13 +8517,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="38"/>
@@ -8523,10 +8534,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -8540,10 +8551,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -8559,10 +8570,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>136</v>
@@ -8581,10 +8592,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>174</v>
@@ -8598,10 +8609,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>136</v>
@@ -8636,10 +8647,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>136</v>
@@ -8655,10 +8666,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>136</v>
@@ -8793,7 +8804,7 @@
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F32" s="71"/>
       <c r="G32" s="72" t="s">
@@ -9528,7 +9539,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9542,7 +9553,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9561,7 +9572,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9627,10 +9638,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>122</v>
@@ -9647,7 +9658,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>148</v>
@@ -9667,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -9800,7 +9811,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10101,7 +10112,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10118,10 +10129,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>164</v>
@@ -10139,10 +10150,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -10582,7 +10593,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -10599,10 +10610,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>164</v>
@@ -10620,10 +10631,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -11063,7 +11074,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11080,10 +11091,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>164</v>
@@ -11101,10 +11112,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -11544,7 +11555,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11561,10 +11572,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>164</v>
@@ -11582,10 +11593,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -12023,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12043,10 +12054,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -12060,13 +12071,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -13307,7 +13318,7 @@
   <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -13762,7 +13773,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" ht="14.25" spans="1:7">
       <c r="A30" s="121"/>
       <c r="B30" s="122"/>
       <c r="C30" s="51"/>

--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="10" activeTab="20"/>
+    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="10" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,13 @@
     <sheet name="收货地址表" sheetId="16" r:id="rId18"/>
     <sheet name="token表" sheetId="24" r:id="rId19"/>
     <sheet name="店铺表" sheetId="17" r:id="rId20"/>
-    <sheet name="店铺图片表" sheetId="30" r:id="rId21"/>
-    <sheet name="木工表" sheetId="19" r:id="rId22"/>
-    <sheet name="水电工表" sheetId="20" r:id="rId23"/>
-    <sheet name="瓦工表" sheetId="21" r:id="rId24"/>
-    <sheet name="油漆工表" sheetId="22" r:id="rId25"/>
-    <sheet name="第三方表" sheetId="23" r:id="rId26"/>
+    <sheet name="店铺风格表" sheetId="31" r:id="rId21"/>
+    <sheet name="店铺图片表" sheetId="30" r:id="rId22"/>
+    <sheet name="木工表" sheetId="19" r:id="rId23"/>
+    <sheet name="水电工表" sheetId="20" r:id="rId24"/>
+    <sheet name="瓦工表" sheetId="21" r:id="rId25"/>
+    <sheet name="油漆工表" sheetId="22" r:id="rId26"/>
+    <sheet name="第三方表" sheetId="23" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">用户表!$A$1:$G$39</definedName>
@@ -40,12 +41,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">表一览!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">用户信息表!$A$1:$G$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">实名制表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="25">第三方表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">第三方表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">时间表!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">木工表!$A$1:$G$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">水电工表!$A$1:$G$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="23">瓦工表!$A$1:$G$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="24">油漆工表!$A$1:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">木工表!$A$1:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">水电工表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">瓦工表!$A$1:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="25">油漆工表!$A$1:$G$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">收货地址表!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">验证码表!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">短信轰炸表!$A$1:$G$34</definedName>
@@ -60,14 +61,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">银行卡实名表!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">全景图!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">工长信息表!$A$1:$G$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">店铺图片表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">店铺图片表!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">店铺风格表!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382">
   <si>
     <t>更新日期</t>
   </si>
@@ -1110,10 +1112,25 @@
     <t>shop_volume</t>
   </si>
   <si>
+    <t>店铺风格表</t>
+  </si>
+  <si>
+    <t>hh_shop_style</t>
+  </si>
+  <si>
+    <t>用于存放店铺风格标签的信息</t>
+  </si>
+  <si>
+    <t>风格名字</t>
+  </si>
+  <si>
+    <t>stylename</t>
+  </si>
+  <si>
     <t>店铺图片表</t>
   </si>
   <si>
-    <t>hh_shopimg</t>
+    <t>hh_shop_img</t>
   </si>
   <si>
     <t>店铺ID</t>
@@ -1280,10 +1297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1370,6 +1387,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1379,14 +1411,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,8 +1433,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1421,82 +1509,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,10 +1523,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1558,13 +1575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,19 +1587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,19 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,19 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,42 +1689,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1708,13 +1701,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,13 +1731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,11 +2643,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2646,6 +2693,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2667,56 +2734,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2731,10 +2748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2743,140 +2760,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="74" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3210,22 +3227,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3792,278 +3797,278 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="18.75" spans="2:11">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171" t="s">
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="171" t="s">
+      <c r="J2" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="174"/>
+      <c r="I3" s="170"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="192"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="188"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="183"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="179"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="190"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="172"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="183"/>
+      <c r="I6" s="179"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="190"/>
+      <c r="K6" s="186"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="193"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="189"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="190"/>
+      <c r="K7" s="186"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="193"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="190"/>
+      <c r="K8" s="186"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="193"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="190"/>
+      <c r="K9" s="186"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="193"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="189"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="190"/>
+      <c r="K10" s="186"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="193"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="189"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="190"/>
+      <c r="K11" s="186"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="193"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="189"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="190"/>
+      <c r="K12" s="186"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="193"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="189"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="190"/>
+      <c r="K13" s="186"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="180"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="193"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="189"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="190"/>
+      <c r="K14" s="186"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="193"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="189"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="190"/>
+      <c r="K15" s="186"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="193"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="189"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="190"/>
+      <c r="K16" s="186"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="193"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="189"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="190"/>
+      <c r="K17" s="186"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="193"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="189"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="190"/>
+      <c r="K18" s="186"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="193"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="189"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="190"/>
+      <c r="K19" s="186"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="180"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="193"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="189"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="190"/>
+      <c r="K20" s="186"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="180"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="193"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="189"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="190"/>
+      <c r="K21" s="186"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="193"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="189"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="190"/>
+      <c r="K22" s="186"/>
     </row>
     <row r="23" ht="14.25" spans="2:11">
-      <c r="B23" s="162"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="194"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -4339,7 +4344,7 @@
       <c r="D17" s="50"/>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="140"/>
+      <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="54"/>
@@ -4399,12 +4404,12 @@
       <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="108"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="108"/>
     </row>
     <row r="24" ht="19.5" spans="1:7">
@@ -4808,21 +4813,21 @@
       <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="137">
+      <c r="A18" s="133">
         <v>6</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="135" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="135"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="131"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="73"/>
@@ -4831,7 +4836,7 @@
       <c r="D19" s="50"/>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
-      <c r="G19" s="140"/>
+      <c r="G19" s="136"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="54"/>
@@ -4891,12 +4896,12 @@
       <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="119"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="108"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="108"/>
     </row>
     <row r="26" ht="19.5" spans="1:7">
@@ -5297,68 +5302,68 @@
         <v>80</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="135"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="131"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="136">
+      <c r="A18" s="132">
         <v>6</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="127"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="122">
+      <c r="A19" s="118">
         <v>7</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="126"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="127">
+      <c r="A20" s="123">
         <v>8</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="131"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="49"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="54"/>
@@ -5418,12 +5423,12 @@
       <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="119"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="108"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="108"/>
     </row>
     <row r="28" ht="19.5" spans="1:7">
@@ -5824,7 +5829,7 @@
         <v>170</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="117" t="s">
         <v>227</v>
       </c>
       <c r="G17" s="48" t="s">
@@ -5832,39 +5837,39 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="122">
+      <c r="A18" s="118">
         <v>6</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="126"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="131"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="49"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="134"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="54"/>
@@ -5924,12 +5929,12 @@
       <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="119"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="108"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="108"/>
     </row>
     <row r="27" ht="19.5" spans="1:7">
@@ -6261,7 +6266,7 @@
       <c r="D13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="113"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
     </row>
@@ -6278,7 +6283,7 @@
       <c r="D14" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="113"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
     </row>
@@ -6293,9 +6298,9 @@
       <c r="D15" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35">
@@ -6386,16 +6391,16 @@
       <c r="A21" s="35">
         <v>8</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="113" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="47" t="s">
         <v>227</v>
       </c>
@@ -6411,10 +6416,10 @@
       <c r="C22" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="117"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="47" t="s">
         <v>227</v>
       </c>
@@ -6422,20 +6427,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="94"/>
-      <c r="B23" s="117"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="45"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="45"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="48"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
@@ -6496,12 +6501,12 @@
       <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="108"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="108"/>
     </row>
     <row r="32" ht="19.5" spans="1:7">
@@ -7860,7 +7865,7 @@
       <c r="F16" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="111" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9216,417 +9221,417 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="19.5" spans="2:8">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148" t="s">
+      <c r="F2" s="144"/>
+      <c r="G2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="2:8">
-      <c r="B3" s="150">
+      <c r="B3" s="146">
         <v>1</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="155"/>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="2:8">
-      <c r="B4" s="150">
+      <c r="B4" s="146">
         <v>2</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="158" t="s">
+      <c r="F4" s="149"/>
+      <c r="G4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="159"/>
+      <c r="H4" s="155"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:8">
-      <c r="B5" s="150">
+      <c r="B5" s="146">
         <v>3</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="153" t="s">
+      <c r="D5" s="153"/>
+      <c r="E5" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="158" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="159"/>
+      <c r="H5" s="155"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="2:8">
-      <c r="B6" s="150">
+      <c r="B6" s="146">
         <v>4</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="153"/>
+      <c r="E6" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="158" t="s">
+      <c r="F6" s="149"/>
+      <c r="G6" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="159"/>
+      <c r="H6" s="155"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="2:8">
-      <c r="B7" s="150">
+      <c r="B7" s="146">
         <v>5</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="153" t="s">
+      <c r="D7" s="153"/>
+      <c r="E7" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="158" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="159"/>
+      <c r="H7" s="155"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="2:8">
-      <c r="B8" s="150">
+      <c r="B8" s="146">
         <v>6</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="153"/>
+      <c r="E8" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="158" t="s">
+      <c r="F8" s="149"/>
+      <c r="G8" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="159"/>
+      <c r="H8" s="155"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="2:8">
-      <c r="B9" s="150">
+      <c r="B9" s="146">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="153" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="158" t="s">
+      <c r="F9" s="149"/>
+      <c r="G9" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="157"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="2:8">
-      <c r="B10" s="150">
+      <c r="B10" s="146">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="153" t="s">
+      <c r="D10" s="156"/>
+      <c r="E10" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="158" t="s">
+      <c r="F10" s="149"/>
+      <c r="G10" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="161"/>
+      <c r="H10" s="157"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="2:8">
-      <c r="B11" s="150">
+      <c r="B11" s="146">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="153" t="s">
+      <c r="D11" s="156"/>
+      <c r="E11" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="G11" s="158" t="s">
+      <c r="F11" s="149"/>
+      <c r="G11" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="161"/>
+      <c r="H11" s="157"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="2:8">
-      <c r="B12" s="150">
+      <c r="B12" s="146">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="153" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="158" t="s">
+      <c r="F12" s="149"/>
+      <c r="G12" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="161"/>
+      <c r="H12" s="157"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:8">
-      <c r="B13" s="150">
+      <c r="B13" s="146">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="153" t="s">
+      <c r="D13" s="156"/>
+      <c r="E13" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="158" t="s">
+      <c r="F13" s="149"/>
+      <c r="G13" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="161"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="2:8">
-      <c r="B14" s="150">
+      <c r="B14" s="146">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="156"/>
+      <c r="E14" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="158" t="s">
+      <c r="F14" s="149"/>
+      <c r="G14" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="161"/>
+      <c r="H14" s="157"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="2:8">
-      <c r="B15" s="150">
+      <c r="B15" s="146">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="153" t="s">
+      <c r="D15" s="156"/>
+      <c r="E15" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="158" t="s">
+      <c r="F15" s="149"/>
+      <c r="G15" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="161"/>
+      <c r="H15" s="157"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="2:8">
-      <c r="B16" s="150">
+      <c r="B16" s="146">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="153" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="158" t="s">
+      <c r="F16" s="149"/>
+      <c r="G16" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="161"/>
+      <c r="H16" s="157"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="2:8">
-      <c r="B17" s="150">
+      <c r="B17" s="146">
         <v>15</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="153" t="s">
+      <c r="D17" s="153"/>
+      <c r="E17" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="153"/>
-      <c r="G17" s="158" t="s">
+      <c r="F17" s="149"/>
+      <c r="G17" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="159"/>
+      <c r="H17" s="155"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="2:8">
-      <c r="B18" s="150">
+      <c r="B18" s="146">
         <v>16</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="153" t="s">
+      <c r="D18" s="153"/>
+      <c r="E18" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="158" t="s">
+      <c r="F18" s="149"/>
+      <c r="G18" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="159"/>
+      <c r="H18" s="155"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="2:8">
-      <c r="B19" s="150">
+      <c r="B19" s="146">
         <v>17</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="153" t="s">
+      <c r="D19" s="152"/>
+      <c r="E19" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="158" t="s">
+      <c r="F19" s="149"/>
+      <c r="G19" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="159"/>
+      <c r="H19" s="155"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:8">
-      <c r="B20" s="150">
+      <c r="B20" s="146">
         <v>18</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="153" t="s">
+      <c r="D20" s="153"/>
+      <c r="E20" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="G20" s="158" t="s">
+      <c r="F20" s="149"/>
+      <c r="G20" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="159"/>
+      <c r="H20" s="155"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:8">
-      <c r="B21" s="150"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="155"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:8">
-      <c r="B22" s="150"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="159"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="155"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:8">
-      <c r="B23" s="150"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:8">
-      <c r="B24" s="150"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="155"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="2:8">
-      <c r="B25" s="150"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="2:8">
-      <c r="B26" s="150"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="155"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="2:8">
-      <c r="B27" s="150"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="159"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="2:8">
-      <c r="B28" s="150"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="2:8">
-      <c r="B29" s="150"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:8">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="168"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="164"/>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1"/>
@@ -10071,7 +10076,7 @@
         <v>127</v>
       </c>
       <c r="E23" s="45"/>
-      <c r="F23" s="111" t="s">
+      <c r="F23" s="97" t="s">
         <v>227</v>
       </c>
       <c r="G23" s="48"/>
@@ -10090,7 +10095,7 @@
         <v>127</v>
       </c>
       <c r="E24" s="45"/>
-      <c r="F24" s="111" t="s">
+      <c r="F24" s="97" t="s">
         <v>227</v>
       </c>
       <c r="G24" s="48"/>
@@ -10356,10 +10361,498 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="48"/>
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="94"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="68"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" ht="19.5" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" ht="19.5" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="68"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:8">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:8">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:8">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10417,7 +10910,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10431,7 +10924,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10516,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>302</v>
@@ -10536,10 +11029,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>161</v>
@@ -10553,20 +11046,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="47" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -10684,7 +11177,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -10855,7 +11348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J41"/>
@@ -11022,7 +11515,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11042,7 +11535,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -11059,7 +11552,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>170</v>
@@ -11080,7 +11573,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -11094,10 +11587,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -11114,7 +11607,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -11128,10 +11621,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -11145,10 +11638,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>170</v>
@@ -11166,10 +11659,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -11442,7 +11935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J36"/>
@@ -11609,7 +12102,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11629,7 +12122,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -11646,7 +12139,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>170</v>
@@ -11667,7 +12160,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -11681,10 +12174,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -11701,7 +12194,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -11715,10 +12208,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -11732,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>170</v>
@@ -11753,10 +12246,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -11960,7 +12453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J41"/>
@@ -12127,7 +12620,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12147,7 +12640,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -12164,7 +12657,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>170</v>
@@ -12185,7 +12678,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -12199,10 +12692,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -12219,7 +12712,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -12233,10 +12726,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -12250,10 +12743,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>170</v>
@@ -12271,10 +12764,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -12469,593 +12962,6 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:7">
-      <c r="A38" s="68"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="78"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="68"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="68"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="78"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J41"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="11" ht="19.5" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
-        <v>1</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35">
-        <v>2</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="J14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <v>3</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
-        <v>4</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="92"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
-        <v>7</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
-        <v>8</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
-        <v>9</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" ht="19.5" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="68">
-        <v>1</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="68">
-        <v>1</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" ht="19.5" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
       <c r="A38" s="68"/>
       <c r="B38" s="77"/>
       <c r="C38" s="70"/>
@@ -13137,6 +13043,593 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:7">
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:7">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="11" ht="19.5" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
+        <v>6</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
+        <v>7</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
+        <v>8</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35">
+        <v>9</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" ht="19.5" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="68">
+        <v>1</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="68">
+        <v>1</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" ht="19.5" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="68"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="78"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="68"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="68"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="78"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B8:G9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13299,10 +13792,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -13319,10 +13812,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -13336,13 +13829,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -13882,7 +14375,7 @@
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="146" t="s">
+      <c r="G20" s="142" t="s">
         <v>99</v>
       </c>
     </row>
@@ -13900,21 +14393,21 @@
         <v>98</v>
       </c>
       <c r="E21" s="36"/>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="135" t="s">
+      <c r="G21" s="131" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="14.25" spans="1:7">
       <c r="A22" s="73"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
-      <c r="G22" s="140"/>
+      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="54"/>
@@ -13980,12 +14473,12 @@
       <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="108"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="108"/>
     </row>
     <row r="29" ht="19.5" spans="1:7">
@@ -14327,7 +14820,7 @@
       <c r="B14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="137" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -14422,7 +14915,7 @@
       <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="138" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="93" t="s">
@@ -14431,7 +14924,7 @@
       <c r="D19" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="143"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="97" t="s">
         <v>119</v>
       </c>
@@ -14558,9 +15051,9 @@
       <c r="D26" s="46"/>
       <c r="E26" s="104"/>
       <c r="F26" s="47"/>
-      <c r="G26" s="145"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="141"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="105"/>
       <c r="B27" s="106"/>
       <c r="C27" s="51"/>
@@ -14974,7 +15467,7 @@
       <c r="B14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="137" t="s">
         <v>146</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -15069,7 +15562,7 @@
       <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="138" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="93" t="s">
@@ -15078,7 +15571,7 @@
       <c r="D19" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="143"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="97" t="s">
         <v>119</v>
       </c>
@@ -15202,7 +15695,7 @@
       <c r="A26" s="35">
         <v>14</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="138" t="s">
         <v>151</v>
       </c>
       <c r="C26" s="93" t="s">
@@ -15211,17 +15704,17 @@
       <c r="D26" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="144"/>
+      <c r="E26" s="140"/>
       <c r="F26" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="145"/>
+      <c r="G26" s="141"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="35">
         <v>15</v>
       </c>
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="138" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="93" t="s">
@@ -15230,7 +15723,7 @@
       <c r="D27" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="144"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="47" t="s">
         <v>119</v>
       </c>
@@ -15242,7 +15735,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="104"/>
       <c r="F28" s="47"/>
-      <c r="G28" s="145"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
       <c r="A29" s="105"/>
@@ -16229,7 +16722,7 @@
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="118"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="45"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16238,7 +16731,7 @@
       <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="45"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16247,7 +16740,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>

--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="10" activeTab="21"/>
+    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
   <si>
     <t>更新日期</t>
   </si>
@@ -647,7 +647,7 @@
     <t>verify_userid</t>
   </si>
   <si>
-    <t>verufy_name</t>
+    <t>verify_name</t>
   </si>
   <si>
     <t>varchar(6)</t>
@@ -656,25 +656,37 @@
     <t>身份证号码</t>
   </si>
   <si>
+    <t>verify_idcard</t>
+  </si>
+  <si>
+    <t>银行卡号</t>
+  </si>
+  <si>
+    <t>verify_bankcard</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>预留手机号</t>
+  </si>
+  <si>
+    <t>verify_phone</t>
+  </si>
+  <si>
+    <t>real_userid</t>
+  </si>
+  <si>
+    <t>real_name</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>cardtype</t>
+  </si>
+  <si>
     <t>tinyint</t>
-  </si>
-  <si>
-    <t>银行卡号</t>
-  </si>
-  <si>
-    <t>预留手机号</t>
-  </si>
-  <si>
-    <t>real_userid</t>
-  </si>
-  <si>
-    <t>real_name</t>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>cardtype</t>
   </si>
   <si>
     <t>证件号</t>
@@ -1297,10 +1309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1394,29 +1406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1448,6 +1437,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1468,6 +1480,35 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1496,38 +1537,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1575,7 +1587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,25 +1635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,13 +1665,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,31 +1731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,55 +1761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,26 +2709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2740,6 +2732,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2748,10 +2760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2760,136 +2772,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="74" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="74" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4287,10 +4299,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>92</v>
@@ -4304,10 +4316,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -4321,20 +4333,20 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -4749,10 +4761,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>127</v>
@@ -4766,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>136</v>
@@ -4783,13 +4795,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
@@ -4800,13 +4812,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="42"/>
@@ -4817,10 +4829,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="134" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C18" s="135" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D18" s="135" t="s">
         <v>127</v>
@@ -5259,13 +5271,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -5276,10 +5288,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>136</v>
@@ -5293,10 +5305,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -5310,10 +5322,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D18" s="125" t="s">
         <v>136</v>
@@ -5327,10 +5339,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D19" s="120" t="s">
         <v>136</v>
@@ -5344,10 +5356,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" s="125" t="s">
         <v>136</v>
@@ -5670,7 +5682,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -5684,7 +5696,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -5703,7 +5715,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5772,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -5786,10 +5798,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>127</v>
@@ -5803,13 +5815,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="42"/>
@@ -5820,20 +5832,20 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="117" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5844,7 +5856,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D18" s="120" t="s">
         <v>92</v>
@@ -5977,7 +5989,7 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="70" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="72" t="s">
@@ -6176,7 +6188,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -6190,7 +6202,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -6209,7 +6221,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6275,10 +6287,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>127</v>
@@ -6290,10 +6302,10 @@
     <row r="15" spans="1:7">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>161</v>
@@ -6307,10 +6319,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>80</v>
@@ -6324,13 +6336,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="42"/>
@@ -6341,10 +6353,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>127</v>
@@ -6358,10 +6370,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>136</v>
@@ -6375,13 +6387,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
@@ -6392,17 +6404,17 @@
         <v>8</v>
       </c>
       <c r="B21" s="113" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D21" s="113" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G21" s="48"/>
     </row>
@@ -6411,17 +6423,17 @@
         <v>9</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D22" s="113" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="113"/>
       <c r="F22" s="47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G22" s="48"/>
     </row>
@@ -6549,7 +6561,7 @@
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="70" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="72" t="s">
@@ -6847,10 +6859,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>168</v>
@@ -6867,10 +6879,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>136</v>
@@ -6884,10 +6896,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>136</v>
@@ -6901,10 +6913,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>168</v>
@@ -6918,13 +6930,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="44"/>
@@ -7354,10 +7366,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>86</v>
@@ -7374,13 +7386,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="44"/>
@@ -7391,10 +7403,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>127</v>
@@ -7816,10 +7828,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>86</v>
@@ -7836,13 +7848,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="44"/>
@@ -7853,20 +7865,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="111" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -8282,10 +8294,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>168</v>
@@ -8299,10 +8311,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>83</v>
@@ -8319,10 +8331,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>83</v>
@@ -8336,10 +8348,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>83</v>
@@ -8353,13 +8365,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="47"/>
@@ -8370,10 +8382,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>136</v>
@@ -8387,10 +8399,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>80</v>
@@ -8404,10 +8416,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>80</v>
@@ -8421,10 +8433,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>95</v>
@@ -8438,17 +8450,17 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -8775,7 +8787,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -8789,7 +8801,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -8808,7 +8820,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8874,10 +8886,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -8891,10 +8903,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>136</v>
@@ -8908,13 +8920,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="38"/>
@@ -9056,7 +9068,7 @@
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="72" t="s">
@@ -9800,7 +9812,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -9814,7 +9826,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -9833,7 +9845,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9882,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>76</v>
@@ -9899,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -9916,10 +9928,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -9933,10 +9945,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>80</v>
@@ -9952,10 +9964,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>136</v>
@@ -9974,13 +9986,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="44"/>
@@ -9991,10 +10003,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>136</v>
@@ -10029,10 +10041,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>136</v>
@@ -10048,10 +10060,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>136</v>
@@ -10067,17 +10079,17 @@
         <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -10086,17 +10098,17 @@
         <v>12</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G24" s="48"/>
     </row>
@@ -10224,7 +10236,7 @@
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="70" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F35" s="71"/>
       <c r="G35" s="72" t="s">
@@ -10423,7 +10435,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10437,7 +10449,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10456,7 +10468,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10505,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>76</v>
@@ -10522,10 +10534,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>92</v>
@@ -10564,7 +10576,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="48"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="49"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -10621,7 +10633,7 @@
       <c r="F22" s="71"/>
       <c r="G22" s="62"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="63"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
@@ -10680,14 +10692,14 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="73"/>
       <c r="B28" s="74"/>
       <c r="C28" s="75"/>
@@ -10764,7 +10776,7 @@
       <c r="F34" s="83"/>
       <c r="G34" s="78"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" ht="14.25" spans="1:7">
       <c r="A35" s="73"/>
       <c r="B35" s="74"/>
       <c r="C35" s="84"/>
@@ -10851,7 +10863,7 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
@@ -10910,7 +10922,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10924,7 +10936,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -11009,13 +11021,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -11029,10 +11041,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>161</v>
@@ -11046,20 +11058,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="47" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -11177,7 +11189,7 @@
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72" t="s">
@@ -11515,7 +11527,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -11535,7 +11547,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -11552,10 +11564,10 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="89" t="s">
@@ -11573,7 +11585,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -11587,10 +11599,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -11607,7 +11619,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -11621,10 +11633,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -11638,13 +11650,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="44" t="s">
@@ -11659,10 +11671,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -11734,7 +11746,7 @@
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -11797,7 +11809,7 @@
       </c>
       <c r="B33" s="69"/>
       <c r="C33" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="70" t="s">
@@ -12102,7 +12114,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12122,7 +12134,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -12139,10 +12151,10 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="89" t="s">
@@ -12160,7 +12172,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -12174,10 +12186,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -12194,7 +12206,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -12208,10 +12220,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -12225,13 +12237,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="44" t="s">
@@ -12246,10 +12258,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -12321,7 +12333,7 @@
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -12620,7 +12632,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -12640,7 +12652,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -12657,10 +12669,10 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="89" t="s">
@@ -12678,7 +12690,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -12692,10 +12704,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -12712,7 +12724,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -12726,10 +12738,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -12743,13 +12755,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="44" t="s">
@@ -12764,10 +12776,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -12839,7 +12851,7 @@
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -12902,7 +12914,7 @@
       </c>
       <c r="B33" s="69"/>
       <c r="C33" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="70" t="s">
@@ -13207,7 +13219,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -13227,7 +13239,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>92</v>
@@ -13244,10 +13256,10 @@
         <v>122</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="89" t="s">
@@ -13265,7 +13277,7 @@
         <v>125</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>127</v>
@@ -13279,10 +13291,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>92</v>
@@ -13299,7 +13311,7 @@
         <v>151</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>127</v>
@@ -13313,10 +13325,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>127</v>
@@ -13330,13 +13342,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="44" t="s">
@@ -13351,10 +13363,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>80</v>
@@ -13426,7 +13438,7 @@
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -13489,7 +13501,7 @@
       </c>
       <c r="B33" s="69"/>
       <c r="C33" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="70" t="s">
@@ -13792,10 +13804,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -13812,10 +13824,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -13829,13 +13841,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -14105,7 +14117,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -16485,8 +16497,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16683,9 +16695,11 @@
       <c r="B16" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="41" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -16698,9 +16712,11 @@
       <c r="B17" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" s="37" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="44"/>
@@ -16711,11 +16727,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="46"/>
+        <v>174</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" s="37" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="47"/>
@@ -16748,15 +16766,11 @@
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="49">
-        <v>7</v>
-      </c>
+    <row r="22" spans="1:7">
+      <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
-        <v>161</v>
-      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="50"/>
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
@@ -17166,7 +17180,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -17186,7 +17200,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>168</v>
@@ -17200,13 +17214,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="44"/>
@@ -17217,10 +17231,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>80</v>
@@ -17234,10 +17248,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>161</v>
@@ -17251,10 +17265,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>161</v>
@@ -17365,7 +17379,7 @@
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="70" t="s">
@@ -17670,7 +17684,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>80</v>
@@ -17687,13 +17701,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="42"/>
@@ -17828,7 +17842,7 @@
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="70" t="s">

--- a/doc/数据库文档/数据表设计.xlsx
+++ b/doc/数据库文档/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="11490" activeTab="1"/>
+    <workbookView windowWidth="28215" windowHeight="11490" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">更新日志!$A$1:$L$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">表一览!$A$1:$J$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">用户信息表!$A$1:$G$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">实名制表!$A$1:$G$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">实名制表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">时间表!$A$1:$G$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="26">木工表!$A$1:$G$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="27">水电工表!$A$1:$G$36</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426">
   <si>
     <t>更新日期</t>
   </si>
@@ -725,61 +725,55 @@
     <t>real_name</t>
   </si>
   <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>cardtype</t>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>cardnum</t>
+  </si>
+  <si>
+    <t>证件照正面</t>
+  </si>
+  <si>
+    <t>cardfphoto</t>
+  </si>
+  <si>
+    <t>证件照反面</t>
+  </si>
+  <si>
+    <t>cardbphoto</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>用户注册时间</t>
+  </si>
+  <si>
+    <t>reg_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>cate_name</t>
+  </si>
+  <si>
+    <t>分类描述</t>
+  </si>
+  <si>
+    <t>cate_describe</t>
+  </si>
+  <si>
+    <t>显示否</t>
+  </si>
+  <si>
+    <t>dis</t>
   </si>
   <si>
     <t>tinyint</t>
-  </si>
-  <si>
-    <t>证件号</t>
-  </si>
-  <si>
-    <t>cardnum</t>
-  </si>
-  <si>
-    <t>证件照正面</t>
-  </si>
-  <si>
-    <t>cardfphoto</t>
-  </si>
-  <si>
-    <t>证件照反面</t>
-  </si>
-  <si>
-    <t>cardbphoto</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>用户注册时间</t>
-  </si>
-  <si>
-    <t>reg_time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>分类名称</t>
-  </si>
-  <si>
-    <t>cate_name</t>
-  </si>
-  <si>
-    <t>分类描述</t>
-  </si>
-  <si>
-    <t>cate_describe</t>
-  </si>
-  <si>
-    <t>显示否</t>
-  </si>
-  <si>
-    <t>dis</t>
   </si>
   <si>
     <t>1：显示 0：不显示</t>
@@ -1441,9 +1435,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -1538,67 +1532,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,7 +1564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,9 +1578,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,6 +1639,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1667,18 +1655,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1719,13 +1713,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,139 +1791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,7 +1815,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,6 +2781,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2826,30 +2855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2873,17 +2878,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2892,152 +2886,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="75" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="72" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="74" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3470,18 +3464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="54" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="49" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3522,15 +3504,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3965,278 +3938,278 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="18.75" spans="2:11">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="193"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="179"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="194"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="180"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="194"/>
+      <c r="K5" s="187"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="177"/>
-      <c r="C6" s="183"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="134"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="187"/>
+      <c r="I6" s="180"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="194"/>
+      <c r="K6" s="187"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="197"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="190"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="194"/>
+      <c r="K7" s="187"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="134"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="197"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="190"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="194"/>
+      <c r="K8" s="187"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="134"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="197"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="190"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="194"/>
+      <c r="K9" s="187"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
       <c r="D10" s="134"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="197"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="194"/>
+      <c r="K10" s="187"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
       <c r="D11" s="134"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="197"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="190"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="194"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="184"/>
-      <c r="C12" s="185"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="134"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="197"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="190"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="194"/>
+      <c r="K12" s="187"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="184"/>
-      <c r="C13" s="185"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="134"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="197"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="190"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="194"/>
+      <c r="K13" s="187"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="184"/>
-      <c r="C14" s="185"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="134"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="197"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="190"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="194"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="184"/>
-      <c r="C15" s="185"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="134"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="197"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="190"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="194"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="184"/>
-      <c r="C16" s="185"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
       <c r="D16" s="134"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="197"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="190"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="194"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="184"/>
-      <c r="C17" s="185"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="134"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="197"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="190"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="194"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="184"/>
-      <c r="C18" s="185"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
       <c r="D18" s="134"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="197"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="190"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="194"/>
+      <c r="K18" s="187"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="184"/>
-      <c r="C19" s="185"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="178"/>
       <c r="D19" s="134"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="197"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="190"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="194"/>
+      <c r="K19" s="187"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="184"/>
-      <c r="C20" s="185"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
       <c r="D20" s="134"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="197"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="190"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="194"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="184"/>
-      <c r="C21" s="185"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="134"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="197"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="190"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="194"/>
+      <c r="K21" s="187"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="184"/>
-      <c r="C22" s="185"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="134"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="197"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="190"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="194"/>
+      <c r="K22" s="187"/>
     </row>
     <row r="23" ht="14.25" spans="2:11">
-      <c r="B23" s="167"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="198"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -4458,7 +4431,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -4475,13 +4448,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="96"/>
@@ -4616,7 +4589,7 @@
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="64" t="s">
@@ -4918,10 +4891,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>95</v>
@@ -4935,10 +4908,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>98</v>
@@ -4952,20 +4925,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -5380,10 +5353,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>129</v>
@@ -5397,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>139</v>
@@ -5414,10 +5387,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>154</v>
@@ -5431,13 +5404,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="96"/>
@@ -5448,10 +5421,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="141" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" s="141" t="s">
         <v>129</v>
@@ -5890,13 +5863,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="96"/>
@@ -5907,10 +5880,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>139</v>
@@ -5924,10 +5897,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>83</v>
@@ -5941,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D18" s="122" t="s">
         <v>139</v>
@@ -5958,10 +5931,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="117" t="s">
         <v>139</v>
@@ -5975,10 +5948,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D20" s="122" t="s">
         <v>139</v>
@@ -6301,7 +6274,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -6315,7 +6288,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -6334,7 +6307,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6383,13 +6356,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>236</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>238</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="38"/>
@@ -6400,10 +6373,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>98</v>
@@ -6417,13 +6390,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>243</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="38"/>
@@ -6434,10 +6407,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>101</v>
@@ -6453,10 +6426,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>101</v>
@@ -6600,7 +6573,7 @@
       </c>
       <c r="D29" s="65"/>
       <c r="E29" s="134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="73" t="s">
@@ -6799,7 +6772,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -6813,7 +6786,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -6832,7 +6805,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -6881,13 +6854,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="38"/>
@@ -6898,10 +6871,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>98</v>
@@ -6915,10 +6888,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>101</v>
@@ -7062,7 +7035,7 @@
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="134" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="73" t="s">
@@ -7261,7 +7234,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -7275,7 +7248,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -7294,7 +7267,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -7343,13 +7316,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>254</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>256</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="38"/>
@@ -7360,13 +7333,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -7377,13 +7350,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="38"/>
@@ -7397,10 +7370,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C16" s="129" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>98</v>
@@ -7414,13 +7387,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="48"/>
@@ -7431,10 +7404,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>98</v>
@@ -7448,13 +7421,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>263</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>265</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="48"/>
@@ -7465,10 +7438,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>95</v>
@@ -7482,10 +7455,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>95</v>
@@ -7499,10 +7472,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="130" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>139</v>
@@ -7518,10 +7491,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>101</v>
@@ -7682,7 +7655,7 @@
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F38" s="65"/>
       <c r="G38" s="73" t="s">
@@ -7881,7 +7854,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -7895,7 +7868,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -7914,7 +7887,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -7983,7 +7956,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -7997,10 +7970,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>129</v>
@@ -8014,13 +7987,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="96"/>
@@ -8034,7 +8007,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D17" s="117" t="s">
         <v>95</v>
@@ -8052,7 +8025,7 @@
       <c r="F18" s="123"/>
       <c r="G18" s="124"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="53"/>
       <c r="B19" s="125"/>
       <c r="C19" s="125"/>
@@ -8167,7 +8140,7 @@
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F28" s="65"/>
       <c r="G28" s="73" t="s">
@@ -8366,7 +8339,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -8380,7 +8353,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -8399,7 +8372,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8465,10 +8438,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>129</v>
@@ -8480,10 +8453,10 @@
     <row r="15" spans="1:7">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>172</v>
@@ -8497,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="96" t="s">
         <v>83</v>
@@ -8514,13 +8487,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="96"/>
@@ -8531,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>129</v>
@@ -8548,10 +8521,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>139</v>
@@ -8565,13 +8538,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="96"/>
@@ -8582,10 +8555,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="112" t="s">
         <v>129</v>
@@ -8601,10 +8574,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D22" s="112" t="s">
         <v>129</v>
@@ -8739,7 +8712,7 @@
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F34" s="65"/>
       <c r="G34" s="73" t="s">
@@ -9037,10 +9010,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>139</v>
@@ -9054,10 +9027,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>139</v>
@@ -9071,10 +9044,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>179</v>
@@ -9088,13 +9061,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="48"/>
@@ -9365,7 +9338,7 @@
   <sheetPr/>
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -9382,434 +9355,434 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="19.5" spans="2:8">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="151"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="2:8">
-      <c r="B3" s="152">
+      <c r="B3" s="148">
         <v>1</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156" t="s">
+      <c r="F3" s="151"/>
+      <c r="G3" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="157"/>
+      <c r="H3" s="153"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="2:8">
-      <c r="B4" s="152">
+      <c r="B4" s="148">
         <v>2</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="155" t="s">
+      <c r="D4" s="155"/>
+      <c r="E4" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="160" t="s">
+      <c r="F4" s="151"/>
+      <c r="G4" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="161"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:8">
-      <c r="B5" s="152">
+      <c r="B5" s="148">
         <v>3</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="155" t="s">
+      <c r="D5" s="155"/>
+      <c r="E5" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="160" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="161"/>
+      <c r="H5" s="157"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="2:8">
-      <c r="B6" s="152">
+      <c r="B6" s="148">
         <v>4</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="155" t="s">
+      <c r="D6" s="158"/>
+      <c r="E6" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="162" t="s">
+      <c r="F6" s="151"/>
+      <c r="G6" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="164"/>
+      <c r="H6" s="159"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="2:8">
-      <c r="B7" s="152">
+      <c r="B7" s="148">
         <v>5</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="155" t="s">
+      <c r="D7" s="158"/>
+      <c r="E7" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="162" t="s">
+      <c r="F7" s="151"/>
+      <c r="G7" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="164"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="2:8">
-      <c r="B8" s="152">
+      <c r="B8" s="148">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="155" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="160" t="s">
+      <c r="F8" s="151"/>
+      <c r="G8" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="161"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="2:8">
-      <c r="B9" s="152">
+      <c r="B9" s="148">
         <v>8</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="155" t="s">
+      <c r="D9" s="155"/>
+      <c r="E9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="155"/>
-      <c r="G9" s="160" t="s">
+      <c r="F9" s="151"/>
+      <c r="G9" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="157"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="2:8">
-      <c r="B10" s="152">
+      <c r="B10" s="148">
         <v>9</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="155" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="160" t="s">
+      <c r="F10" s="151"/>
+      <c r="G10" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="166"/>
+      <c r="H10" s="159"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="2:8">
-      <c r="B11" s="152">
+      <c r="B11" s="148">
         <v>10</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="155" t="s">
+      <c r="D11" s="158"/>
+      <c r="E11" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="160" t="s">
+      <c r="F11" s="151"/>
+      <c r="G11" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="166"/>
+      <c r="H11" s="159"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="2:8">
-      <c r="B12" s="152">
+      <c r="B12" s="148">
         <v>11</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="155" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="155"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="151"/>
+      <c r="G12" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="166"/>
+      <c r="H12" s="159"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:8">
-      <c r="B13" s="152">
+      <c r="B13" s="148">
         <v>12</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="155" t="s">
+      <c r="D13" s="158"/>
+      <c r="E13" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="151"/>
+      <c r="G13" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="166"/>
+      <c r="H13" s="159"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="2:8">
-      <c r="B14" s="152">
+      <c r="B14" s="148">
         <v>13</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="155" t="s">
+      <c r="D14" s="158"/>
+      <c r="E14" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="160" t="s">
+      <c r="F14" s="151"/>
+      <c r="G14" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="166"/>
+      <c r="H14" s="159"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="2:8">
-      <c r="B15" s="152">
+      <c r="B15" s="148">
         <v>14</v>
       </c>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="155" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="155"/>
-      <c r="G15" s="160" t="s">
+      <c r="F15" s="151"/>
+      <c r="G15" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="166"/>
+      <c r="H15" s="159"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="2:8">
-      <c r="B16" s="152">
+      <c r="B16" s="148">
         <v>15</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="158"/>
+      <c r="E16" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="155"/>
-      <c r="G16" s="160" t="s">
+      <c r="F16" s="151"/>
+      <c r="G16" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="166"/>
+      <c r="H16" s="159"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="2:8">
-      <c r="B17" s="152">
+      <c r="B17" s="148">
         <v>16</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="155" t="s">
+      <c r="D17" s="158"/>
+      <c r="E17" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="155"/>
-      <c r="G17" s="160" t="s">
+      <c r="F17" s="151"/>
+      <c r="G17" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="166"/>
+      <c r="H17" s="159"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="2:8">
-      <c r="B18" s="152">
+      <c r="B18" s="148">
         <v>17</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="155" t="s">
+      <c r="D18" s="155"/>
+      <c r="E18" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="155"/>
-      <c r="G18" s="160" t="s">
+      <c r="F18" s="151"/>
+      <c r="G18" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="161"/>
+      <c r="H18" s="157"/>
     </row>
     <row r="19" ht="24" customHeight="1" spans="2:8">
-      <c r="B19" s="152">
+      <c r="B19" s="148">
         <v>18</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="159"/>
-      <c r="E19" s="155" t="s">
+      <c r="D19" s="155"/>
+      <c r="E19" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="160" t="s">
+      <c r="F19" s="151"/>
+      <c r="G19" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="161"/>
+      <c r="H19" s="157"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="2:8">
-      <c r="B20" s="152">
+      <c r="B20" s="148">
         <v>19</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="155" t="s">
+      <c r="D20" s="154"/>
+      <c r="E20" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="155"/>
-      <c r="G20" s="160" t="s">
+      <c r="F20" s="151"/>
+      <c r="G20" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="161"/>
+      <c r="H20" s="157"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="2:8">
-      <c r="B21" s="152">
+      <c r="B21" s="148">
         <v>20</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="159"/>
-      <c r="E21" s="155" t="s">
+      <c r="D21" s="155"/>
+      <c r="E21" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="160" t="s">
+      <c r="F21" s="151"/>
+      <c r="G21" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="161"/>
+      <c r="H21" s="157"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="2:8">
-      <c r="B22" s="152"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="157"/>
     </row>
     <row r="23" ht="24" customHeight="1" spans="2:8">
-      <c r="B23" s="152"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="161"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="157"/>
     </row>
     <row r="24" ht="24" customHeight="1" spans="2:8">
-      <c r="B24" s="152"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="161"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="157"/>
     </row>
     <row r="25" ht="24" customHeight="1" spans="2:8">
-      <c r="B25" s="152"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="157"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="2:8">
-      <c r="B26" s="152"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="157"/>
     </row>
     <row r="27" ht="24" customHeight="1" spans="2:8">
-      <c r="B27" s="152"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="161"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="157"/>
     </row>
     <row r="28" ht="24" customHeight="1" spans="2:8">
-      <c r="B28" s="152"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="161"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="157"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="2:8">
-      <c r="B29" s="152"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
     </row>
     <row r="30" ht="24" customHeight="1" spans="2:8">
-      <c r="B30" s="152"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="157"/>
     </row>
     <row r="31" ht="24" customHeight="1" spans="2:8">
-      <c r="B31" s="167"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="166"/>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1"/>
@@ -10080,10 +10053,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>89</v>
@@ -10100,13 +10073,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="48"/>
@@ -10117,10 +10090,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>129</v>
@@ -10542,10 +10515,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>89</v>
@@ -10562,10 +10535,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>154</v>
@@ -10579,20 +10552,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="48" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="110" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -10909,7 +10882,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -10923,7 +10896,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -10942,7 +10915,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -11008,10 +10981,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -11025,10 +10998,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>139</v>
@@ -11042,13 +11015,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="108"/>
       <c r="F16" s="38"/>
@@ -11190,7 +11163,7 @@
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F28" s="65"/>
       <c r="G28" s="73" t="s">
@@ -11497,10 +11470,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>179</v>
@@ -11514,10 +11487,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>86</v>
@@ -11534,10 +11507,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>86</v>
@@ -11551,10 +11524,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>86</v>
@@ -11568,13 +11541,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>335</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>337</v>
       </c>
       <c r="E18" s="108"/>
       <c r="F18" s="51"/>
@@ -11585,10 +11558,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>139</v>
@@ -11602,10 +11575,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>83</v>
@@ -11619,10 +11592,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>83</v>
@@ -11636,10 +11609,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>98</v>
@@ -11653,17 +11626,17 @@
         <v>11</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G23" s="52"/>
     </row>
@@ -11990,7 +11963,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -12004,7 +11977,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -12023,7 +11996,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -12072,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>79</v>
@@ -12089,13 +12062,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -12106,10 +12079,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>83</v>
@@ -12123,10 +12096,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>83</v>
@@ -12142,10 +12115,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>139</v>
@@ -12164,13 +12137,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18" s="108"/>
       <c r="F18" s="48"/>
@@ -12181,10 +12154,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>139</v>
@@ -12219,10 +12192,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>139</v>
@@ -12238,10 +12211,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>139</v>
@@ -12257,10 +12230,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>129</v>
@@ -12276,10 +12249,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>129</v>
@@ -12295,10 +12268,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>129</v>
@@ -12314,13 +12287,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="41" t="s">
@@ -12470,7 +12443,7 @@
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="65"/>
       <c r="G39" s="73" t="s">
@@ -12669,7 +12642,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -12683,7 +12656,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -12702,7 +12675,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -12751,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>79</v>
@@ -12768,10 +12741,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>95</v>
@@ -12785,10 +12758,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -12943,7 +12916,7 @@
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F28" s="65"/>
       <c r="G28" s="73" t="s">
@@ -13173,7 +13146,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
@@ -13187,7 +13160,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
@@ -13272,13 +13245,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
@@ -13292,10 +13265,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>172</v>
@@ -13309,20 +13282,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:7">
@@ -13440,7 +13413,7 @@
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F27" s="65"/>
       <c r="G27" s="73" t="s">
@@ -13778,7 +13751,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -13798,7 +13771,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -13815,10 +13788,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="41" t="s">
@@ -13836,7 +13809,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>129</v>
@@ -13850,10 +13823,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>95</v>
@@ -13870,7 +13843,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>129</v>
@@ -13884,10 +13857,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>129</v>
@@ -13901,13 +13874,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="48" t="s">
@@ -13922,10 +13895,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>83</v>
@@ -13997,7 +13970,7 @@
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
@@ -14060,7 +14033,7 @@
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="64" t="s">
@@ -14365,7 +14338,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -14385,7 +14358,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -14402,10 +14375,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="41" t="s">
@@ -14423,7 +14396,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>129</v>
@@ -14437,10 +14410,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>95</v>
@@ -14457,7 +14430,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>129</v>
@@ -14471,10 +14444,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>129</v>
@@ -14488,13 +14461,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="48" t="s">
@@ -14509,10 +14482,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>83</v>
@@ -14584,7 +14557,7 @@
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
@@ -14883,7 +14856,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -14903,7 +14876,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -14920,10 +14893,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="41" t="s">
@@ -14941,7 +14914,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>129</v>
@@ -14955,10 +14928,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>95</v>
@@ -14975,7 +14948,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>129</v>
@@ -14989,10 +14962,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>129</v>
@@ -15006,13 +14979,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="48" t="s">
@@ -15027,10 +15000,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>83</v>
@@ -15102,7 +15075,7 @@
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
@@ -15165,7 +15138,7 @@
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="64" t="s">
@@ -15579,7 +15552,7 @@
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="96"/>
-      <c r="G20" s="148" t="s">
+      <c r="G20" s="144" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16026,7 +15999,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>83</v>
@@ -16046,7 +16019,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>95</v>
@@ -16063,10 +16036,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="41" t="s">
@@ -16084,7 +16057,7 @@
         <v>127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>129</v>
@@ -16098,10 +16071,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>95</v>
@@ -16118,7 +16091,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>129</v>
@@ -16132,10 +16105,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>129</v>
@@ -16149,13 +16122,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="48" t="s">
@@ -16170,10 +16143,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>83</v>
@@ -16245,7 +16218,7 @@
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" s="65"/>
       <c r="E28" s="64" t="s">
@@ -16308,7 +16281,7 @@
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="64" t="s">
@@ -17353,39 +17326,39 @@
       <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="147"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35">
         <v>8</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="146"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="147"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35">
@@ -17566,7 +17539,7 @@
       <c r="F30" s="51"/>
       <c r="G30" s="133"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="14.25" spans="1:7">
       <c r="A31" s="101"/>
       <c r="B31" s="102"/>
       <c r="C31" s="55"/>
@@ -19517,10 +19490,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19712,16 +19685,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="37" t="s">
         <v>192</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="48"/>
@@ -19729,57 +19702,51 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35">
-        <v>5</v>
-      </c>
-      <c r="B17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="53">
+        <v>7</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
-        <v>6</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="C18" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="53">
-        <v>7</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" ht="19.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -19787,56 +19754,56 @@
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
     </row>
-    <row r="21" ht="19.5" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="34" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="104"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="66"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="66"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -19844,64 +19811,64 @@
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="62">
+      <c r="A27" s="62">
         <v>1</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="64" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="73" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="58"/>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -19909,71 +19876,60 @@
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" s="34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="62"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="79"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="62"/>
       <c r="B33" s="78"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="81"/>
       <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="62"/>
       <c r="B34" s="78"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="79"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="62"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -19988,18 +19944,20 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C33:D33"/>
@@ -20008,8 +19966,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="B8:G9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
